--- a/PIB_SCT.xlsx
+++ b/PIB_SCT.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B1DC1BD-C634-4D42-918B-E773E426107D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522C5B1A-5E88-4D84-998A-69C2FE8C9FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
-    <sheet name="C_11" sheetId="1" r:id="rId1"/>
+    <sheet name="C_1.3" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,9 +39,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Periodo</t>
-  </si>
-  <si>
-    <t>(Millones de pesos anulizados  aprecios de 2018)</t>
   </si>
   <si>
     <t>Ultima actualización: mayo 2024</t>
@@ -85,15 +82,18 @@
   <si>
     <t>PIB telecomunicaciones</t>
   </si>
+  <si>
+    <t>(Millones de pesos anulizados  a precios de 2018)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,8 +120,22 @@
       <name val="Montserrat"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Montserrat Medium"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Montserrat Medium"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -130,12 +144,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -143,11 +163,76 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -155,219 +240,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="17" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="Montserrat"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="Montserrat"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="Montserrat"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="Montserrat"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="Montserrat"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="Montserrat"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="Montserrat"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="Montserrat"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="Montserrat"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Montserrat"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="22" formatCode="mmm\-yy"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Montserrat"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="dd/mm/\y\y\y\y"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Montserrat"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -378,24 +283,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{50FAB962-9B31-4298-ABA3-8A7B8B9C9F5B}" name="Tabla3" displayName="Tabla3" ref="B4:K33" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <tableColumns count="10">
-    <tableColumn id="2" xr3:uid="{06D80863-A3AD-4C22-85BC-05BA2DFB088C}" name="Periodo" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{60052B64-29B6-4A81-94B4-6B103416241B}" name="PIB de transportes, correos y almacenamiento" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{03726D84-8347-4B13-A8CA-CF2114774D7A}" name="PIB aéreo" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{0B969ED9-B9B4-4DA8-BFF4-BD018051E923}" name="PIB ferroviario" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{F90C46B7-9926-4854-ACB9-19B0088E2497}" name="PIB marítimo" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{ECF085B3-C5CB-4DFC-B295-F3C77973A297}" name="PIB carretero" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{7D1A83DC-2D9A-4F07-932B-CE2425F8ABBC}" name="PIB servicios postales" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{B328E817-D8C2-48E9-9E4A-9AEAF94078C9}" name="PIB  de información en medios masivos" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{5AE0D1CC-1D5E-4A8B-B057-B2D23AA9245C}" name="PIB en radio y televisión" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{1BE0816A-0B4F-4529-B0C1-55B13C9570CA}" name="PIB telecomunicaciones" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -624,15 +511,22 @@
   <dimension ref="B2:N37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="11" width="19" customWidth="1"/>
+    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5" customWidth="1"/>
+    <col min="10" max="10" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.09765625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.69921875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.796875" bestFit="1" customWidth="1"/>
@@ -640,7 +534,7 @@
   <sheetData>
     <row r="2" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -657,7 +551,7 @@
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -672,67 +566,67 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="2:14" s="8" customFormat="1" ht="54" x14ac:dyDescent="0.35">
-      <c r="B4" s="9" t="s">
+    <row r="4" spans="2:14" s="4" customFormat="1" ht="36" x14ac:dyDescent="0.35">
+      <c r="B4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="E4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="G4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="H4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="I4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="J4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="K4" s="15" t="s">
         <v>14</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B5" s="6">
         <v>45352</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="9">
         <v>1843002.6950000001</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="9">
         <v>78703.460999999996</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="9">
         <v>41302.341</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="9">
         <v>16123.093000000001</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="9">
         <v>1422533.2850000001</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="9">
         <v>36650.665000000001</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="9">
         <v>444212.01799999998</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="9">
         <v>44710.538999999997</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="10">
         <v>359476.962</v>
       </c>
     </row>
@@ -740,31 +634,31 @@
       <c r="B6" s="7">
         <v>45261</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="11">
         <v>1826249.564</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="11">
         <v>84231.417000000001</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="11">
         <v>39233.353000000003</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="11">
         <v>16869.133000000002</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="11">
         <v>1404863.4950000001</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="11">
         <v>38536.447999999997</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="11">
         <v>453010.68099999998</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="11">
         <v>56796.148999999998</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="12">
         <v>347831.11800000002</v>
       </c>
     </row>
@@ -772,31 +666,31 @@
       <c r="B7" s="6">
         <v>45170</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="9">
         <v>1824891.58</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="9">
         <v>84323.918000000005</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="9">
         <v>38917.086000000003</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="9">
         <v>18414.116000000002</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="9">
         <v>1407077.5220000001</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="9">
         <v>37677.370999999999</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="9">
         <v>436799.67</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="9">
         <v>54702.589</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="10">
         <v>327455.22899999999</v>
       </c>
     </row>
@@ -804,31 +698,31 @@
       <c r="B8" s="7">
         <v>45078</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="11">
         <v>1855504.618</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="11">
         <v>79026.911999999997</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="11">
         <v>39890.370000000003</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="11">
         <v>17879.544000000002</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="11">
         <v>1443865.8429999999</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="11">
         <v>38977.748000000007</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="11">
         <v>477542.473</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="11">
         <v>64694.868999999999</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="12">
         <v>337875.75099999999</v>
       </c>
     </row>
@@ -836,31 +730,31 @@
       <c r="B9" s="6">
         <v>44986</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="9">
         <v>1768571.9069999999</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="9">
         <v>74829.846000000005</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="9">
         <v>40334.095999999998</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="9">
         <v>16460.302</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="9">
         <v>1379038.8769999999</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="9">
         <v>38741.973999999995</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="9">
         <v>425656.42200000002</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="9">
         <v>42295.781999999999</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="10">
         <v>339610.67300000001</v>
       </c>
     </row>
@@ -868,31 +762,31 @@
       <c r="B10" s="7">
         <v>44896</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="11">
         <v>1803758.7760000001</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="11">
         <v>78231.879000000001</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="11">
         <v>37874.627999999997</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="11">
         <v>16132.758</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="11">
         <v>1397409.6189999999</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="11">
         <v>38571.370999999999</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="11">
         <v>455593.93599999999</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="11">
         <v>76667.258000000002</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="12">
         <v>324933.21000000002</v>
       </c>
     </row>
@@ -900,31 +794,31 @@
       <c r="B11" s="6">
         <v>44805</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="9">
         <v>1786513.2819999999</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="9">
         <v>75088.350999999995</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="9">
         <v>40417.661</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="9">
         <v>17835.682000000001</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="9">
         <v>1379736.811</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="9">
         <v>34864.396999999997</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="9">
         <v>397462.28100000002</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="9">
         <v>53427.777999999998</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="10">
         <v>292687.33</v>
       </c>
     </row>
@@ -932,31 +826,31 @@
       <c r="B12" s="7">
         <v>44713</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="11">
         <v>1794614.2150000001</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="11">
         <v>72388.679000000004</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="11">
         <v>39087.455999999998</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="11">
         <v>17835.797999999999</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="11">
         <v>1394453.507</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="11">
         <v>36319.68</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="11">
         <v>428402.31400000001</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="11">
         <v>55314.290999999997</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="12">
         <v>311931.75</v>
       </c>
     </row>
@@ -964,31 +858,31 @@
       <c r="B13" s="6">
         <v>44621</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="9">
         <v>1652049.7520000001</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="9">
         <v>62273.506999999998</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="9">
         <v>39922.703000000001</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="9">
         <v>15953.852999999999</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="9">
         <v>1294903.3429999999</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="9">
         <v>36328.084000000003</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="9">
         <v>408802.46100000001</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="9">
         <v>45334.349000000002</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="10">
         <v>323689.87400000001</v>
       </c>
     </row>
@@ -996,31 +890,31 @@
       <c r="B14" s="7">
         <v>44531</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="11">
         <v>1669255.32</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="11">
         <v>68194.721999999994</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="11">
         <v>40021</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="11">
         <v>17238.009999999998</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="11">
         <v>1284426.1710000001</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="11">
         <v>39133.508999999998</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="11">
         <v>404526.93699999998</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="11">
         <v>50277.087</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="12">
         <v>305090.84100000001</v>
       </c>
     </row>
@@ -1028,31 +922,31 @@
       <c r="B15" s="6">
         <v>44440</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="9">
         <v>1588299.804</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="9">
         <v>61661.207000000002</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="9">
         <v>41920.038999999997</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="9">
         <v>17541.276999999998</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="9">
         <v>1226602.686</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="9">
         <v>34023.968000000001</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="9">
         <v>369285.56800000003</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="9">
         <v>41058.044000000002</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="10">
         <v>283388.99200000003</v>
       </c>
     </row>
@@ -1060,31 +954,31 @@
       <c r="B16" s="7">
         <v>44348</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="11">
         <v>1586398.6710000001</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="11">
         <v>55986.597000000002</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="11">
         <v>41825.332000000002</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="11">
         <v>17246.403999999999</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="11">
         <v>1230833.2069999999</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="11">
         <v>31772.227000000003</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="11">
         <v>370119.02299999999</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="11">
         <v>30562.583999999999</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="12">
         <v>295772.97499999998</v>
       </c>
     </row>
@@ -1092,31 +986,31 @@
       <c r="B17" s="6">
         <v>44256</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="9">
         <v>1432686.8389999999</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="9">
         <v>40266.410000000003</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="9">
         <v>38760.824999999997</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="9">
         <v>15102.422</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="9">
         <v>1125591.8489999999</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="9">
         <v>30497.906999999999</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="9">
         <v>355093.79800000001</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="9">
         <v>34025.637000000002</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="10">
         <v>293072.50699999998</v>
       </c>
     </row>
@@ -1124,31 +1018,31 @@
       <c r="B18" s="7">
         <v>44166</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="11">
         <v>1452654.1580000001</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="11">
         <v>43221.267</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="11">
         <v>37610.368000000002</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="11">
         <v>15153.306</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="11">
         <v>1142195.0209999999</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="11">
         <v>32368.103999999999</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="11">
         <v>383060.71799999999</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="11">
         <v>43233.413999999997</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="12">
         <v>303418.36900000001</v>
       </c>
     </row>
@@ -1156,31 +1050,31 @@
       <c r="B19" s="6">
         <v>44075</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="9">
         <v>1324804.855</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="9">
         <v>27809.295999999998</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="9">
         <v>39988.853000000003</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="9">
         <v>14755.734</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="9">
         <v>1054383.128</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="9">
         <v>32446.451999999997</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="9">
         <v>339426.875</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19" s="9">
         <v>30997.702000000001</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19" s="10">
         <v>275969.978</v>
       </c>
     </row>
@@ -1188,31 +1082,31 @@
       <c r="B20" s="7">
         <v>43983</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="11">
         <v>1046741.801</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="11">
         <v>8583.2569999999996</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="11">
         <v>33735.362999999998</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="11">
         <v>14809.057000000001</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="11">
         <v>833504.78299999994</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="11">
         <v>24298.183000000001</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="11">
         <v>319719.19</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="11">
         <v>19094.003000000001</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="12">
         <v>272925.56</v>
       </c>
     </row>
@@ -1220,31 +1114,31 @@
       <c r="B21" s="6">
         <v>43891</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="9">
         <v>1601364.0619999999</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="9">
         <v>67912.129000000001</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="9">
         <v>39490.457000000002</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="9">
         <v>16236.735000000001</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="9">
         <v>1261790.388</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="9">
         <v>25766.957000000002</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="9">
         <v>355067.17800000001</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="9">
         <v>29255.016</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="10">
         <v>280637.14899999998</v>
       </c>
     </row>
@@ -1252,31 +1146,31 @@
       <c r="B22" s="7">
         <v>43800</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="11">
         <v>1655099.473</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="11">
         <v>74664.42</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="11">
         <v>38606.845000000001</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="11">
         <v>16895.731</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="11">
         <v>1299653.307</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="11">
         <v>28479.141</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="11">
         <v>408224.50400000002</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="11">
         <v>48010.567999999999</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="12">
         <v>302433.20799999998</v>
       </c>
     </row>
@@ -1284,31 +1178,31 @@
       <c r="B23" s="6">
         <v>43709</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="9">
         <v>1676783.26</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="9">
         <v>71016.017000000007</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="9">
         <v>41520.222999999998</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="9">
         <v>18625.53</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="9">
         <v>1328113.648</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="9">
         <v>28121.506000000001</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="9">
         <v>392270.07199999999</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="9">
         <v>37102.976000000002</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="10">
         <v>285182.84299999999</v>
       </c>
     </row>
@@ -1316,31 +1210,31 @@
       <c r="B24" s="7">
         <v>43617</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="11">
         <v>1668227.7890000001</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="11">
         <v>67499.47</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="11">
         <v>39867.446000000004</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="11">
         <v>19163.186000000002</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="11">
         <v>1323087.8740000001</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="11">
         <v>24555.73</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="11">
         <v>368031.47899999999</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="11">
         <v>31320.612000000001</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="12">
         <v>262790.89299999998</v>
       </c>
     </row>
@@ -1348,31 +1242,31 @@
       <c r="B25" s="6">
         <v>43525</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="9">
         <v>1625188.4310000001</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="9">
         <v>61898.733</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="9">
         <v>35846.798000000003</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="9">
         <v>18148.453000000001</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="9">
         <v>1301893.75</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="9">
         <v>23403.891</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="9">
         <v>352168.88500000001</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25" s="9">
         <v>31974.864000000001</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K25" s="10">
         <v>265179.05200000003</v>
       </c>
     </row>
@@ -1380,31 +1274,31 @@
       <c r="B26" s="7">
         <v>43435</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="11">
         <v>1675794.5209999999</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="11">
         <v>65114.981</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="11">
         <v>39863.557999999997</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="11">
         <v>18252.773000000001</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="11">
         <v>1326813.281</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="11">
         <v>26605.802</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="11">
         <v>399180.39899999998</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="11">
         <v>53891.851000000002</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="12">
         <v>284916.50900000002</v>
       </c>
     </row>
@@ -1412,31 +1306,31 @@
       <c r="B27" s="6">
         <v>43344</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="9">
         <v>1672501.388</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="9">
         <v>65164.949000000001</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="9">
         <v>39089.053999999996</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="9">
         <v>19922.897000000001</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="9">
         <v>1320754.638</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="9">
         <v>26650.108999999997</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="9">
         <v>371727.96500000003</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27" s="9">
         <v>44258.788</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="10">
         <v>260398.114</v>
       </c>
     </row>
@@ -1444,31 +1338,31 @@
       <c r="B28" s="7">
         <v>43252</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="11">
         <v>1663414.6129999999</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="11">
         <v>62999.917999999998</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="11">
         <v>39828.671999999999</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="11">
         <v>19551.669000000002</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="11">
         <v>1310572.75</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="11">
         <v>25610.445</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I28" s="11">
         <v>373964.217</v>
       </c>
-      <c r="J28" s="3">
+      <c r="J28" s="11">
         <v>34893.394999999997</v>
       </c>
-      <c r="K28" s="3">
+      <c r="K28" s="12">
         <v>267708.32500000001</v>
       </c>
     </row>
@@ -1476,31 +1370,31 @@
       <c r="B29" s="6">
         <v>43160</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="9">
         <v>1603128.9979999999</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="9">
         <v>61018.131999999998</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="9">
         <v>35221.373</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="9">
         <v>18129.357</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="9">
         <v>1271867.3829999999</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="9">
         <v>23237.167999999998</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="9">
         <v>340170.12</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="9">
         <v>33427.034</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="10">
         <v>252952.67199999999</v>
       </c>
     </row>
@@ -1508,31 +1402,31 @@
       <c r="B30" s="7">
         <v>43070</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="11">
         <v>1648365.577</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="11">
         <v>60845.163</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="11">
         <v>38069.682999999997</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="11">
         <v>19180.561000000002</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="11">
         <v>1301736.8190000001</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="11">
         <v>24422.928</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I30" s="11">
         <v>375413.799</v>
       </c>
-      <c r="J30" s="3">
+      <c r="J30" s="11">
         <v>51660.900999999998</v>
       </c>
-      <c r="K30" s="3">
+      <c r="K30" s="12">
         <v>260060.84400000001</v>
       </c>
     </row>
@@ -1540,31 +1434,31 @@
       <c r="B31" s="6">
         <v>42979</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="9">
         <v>1615762.4210000001</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="9">
         <v>59921.39</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="9">
         <v>37072.167999999998</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="9">
         <v>19055.194</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31" s="9">
         <v>1281367.8119999999</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="9">
         <v>24265.924999999999</v>
       </c>
-      <c r="I31" s="3">
+      <c r="I31" s="9">
         <v>352480.549</v>
       </c>
-      <c r="J31" s="3">
+      <c r="J31" s="9">
         <v>39802.39</v>
       </c>
-      <c r="K31" s="3">
+      <c r="K31" s="10">
         <v>249568.24100000001</v>
       </c>
     </row>
@@ -1572,108 +1466,108 @@
       <c r="B32" s="7">
         <v>42887</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="11">
         <v>1598452.044</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="11">
         <v>56182.137999999999</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="11">
         <v>38769.472000000002</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="11">
         <v>19430.276999999998</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="11">
         <v>1260573.7209999999</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="11">
         <v>22344.081000000002</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="11">
         <v>351419.27399999998</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="11">
         <v>35838.457000000002</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="12">
         <v>249139.997</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B33" s="6">
+      <c r="B33" s="8">
         <v>42795</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="13">
         <v>1556536.3430000001</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="13">
         <v>51131.981</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="13">
         <v>35598.909</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="13">
         <v>18435.093000000001</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33" s="13">
         <v>1237329.523</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="13">
         <v>22075.239000000001</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I33" s="13">
         <v>334806.24599999998</v>
       </c>
-      <c r="J33" s="3">
+      <c r="J33" s="13">
         <v>33453.476999999999</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K33" s="14">
         <v>244600.64199999999</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B34" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="I36" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+    </row>
+    <row r="37" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I37" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-    </row>
-    <row r="37" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="I37:K37"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
--- a/PIB_SCT.xlsx
+++ b/PIB_SCT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFBD4280-4E70-48DF-B936-A866CB754328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035F2316-5981-4AD3-802D-8A818DBED5EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -71,9 +71,6 @@
     <t>PIB telecomunicaciones</t>
   </si>
   <si>
-    <t>(Millones de pesos anulizados  a precios de 2018)</t>
-  </si>
-  <si>
     <t>Nota: La suma de los parciales puede o no coincidir con el total, debido al redondeo de las cifras.</t>
   </si>
   <si>
@@ -100,6 +97,9 @@
   </si>
   <si>
     <t>Actualización: agosto 2024.</t>
+  </si>
+  <si>
+    <t>(Millones de pesos anualizados  a precios de 2018)</t>
   </si>
 </sst>
 </file>
@@ -578,7 +578,7 @@
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -596,10 +596,10 @@
     </row>
     <row r="4" spans="2:15" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.35">
       <c r="B4" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>2</v>
@@ -1541,7 +1541,7 @@
     </row>
     <row r="31" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="3"/>
@@ -1555,7 +1555,7 @@
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B32" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -1569,27 +1569,27 @@
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B33" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B35" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B36" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B37" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C37" s="2"/>
     </row>

--- a/PIB_SCT.xlsx
+++ b/PIB_SCT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035F2316-5981-4AD3-802D-8A818DBED5EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662A088B-3E29-4FFB-997F-692CCAB3EE9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -96,10 +96,10 @@
     <t xml:space="preserve">  El concepto PIB en transporte carretero. Incluye autotransporte de carga y transporte terrestre de pasajeros excepto por ferrocarril.</t>
   </si>
   <si>
+    <t>(Millones de pesos anualizados  a precios de 2018)</t>
+  </si>
+  <si>
     <t>Actualización: agosto 2024.</t>
-  </si>
-  <si>
-    <t>(Millones de pesos anualizados  a precios de 2018)</t>
   </si>
 </sst>
 </file>
@@ -578,7 +578,7 @@
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1541,7 +1541,7 @@
     </row>
     <row r="31" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="3"/>

--- a/PIB_SCT.xlsx
+++ b/PIB_SCT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662A088B-3E29-4FFB-997F-692CCAB3EE9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF8FF44-FB89-41F5-85D4-2E610CB89A7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -99,7 +99,7 @@
     <t>(Millones de pesos anualizados  a precios de 2018)</t>
   </si>
   <si>
-    <t>Actualización: agosto 2024.</t>
+    <t>Actualización: Octubre 2024.</t>
   </si>
 </sst>
 </file>
@@ -113,19 +113,19 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat"/>
+      <name val="Geomanist"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -133,20 +133,20 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Montserrat"/>
+      <name val="Geomanist"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -313,7 +313,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="INSTITUCIONAL">
+    <a:clrScheme name="Intitucional 2025">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -321,28 +321,28 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="9F2241"/>
+        <a:srgbClr val="9B2247"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="BC955C"/>
+        <a:srgbClr val="C39326"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="235B4E"/>
+        <a:srgbClr val="806B4A"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="98989A"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="DDC9A3"/>
+        <a:srgbClr val="E6D194"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="691C32"/>
+        <a:srgbClr val="611232"/>
       </a:accent4>
       <a:accent5>
         <a:srgbClr val="6F7271"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="10312B"/>
+        <a:srgbClr val="7E664A"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="4E4E4E"/>
@@ -351,14 +351,14 @@
         <a:srgbClr val="808080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="INSTITUCIONAL">
+    <a:fontScheme name="Personalizado 1">
       <a:majorFont>
-        <a:latin typeface="Montserrat"/>
+        <a:latin typeface="Geomanist"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Montserrat Medium"/>
+        <a:latin typeface="Geomanist"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -533,32 +533,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O38"/>
+  <dimension ref="B2:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="5.59765625" customWidth="1"/>
-    <col min="3" max="3" width="8.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.09765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5" customWidth="1"/>
-    <col min="11" max="11" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.09765625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.69921875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="5.5" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="21.375" customWidth="1"/>
+    <col min="5" max="5" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="10.875" customWidth="1"/>
+    <col min="9" max="9" width="17.375" customWidth="1"/>
+    <col min="10" max="10" width="14.375" customWidth="1"/>
+    <col min="11" max="11" width="10.125" customWidth="1"/>
+    <col min="12" max="12" width="18.75" customWidth="1"/>
+    <col min="13" max="13" width="8.375" customWidth="1"/>
+    <col min="14" max="14" width="8.625" customWidth="1"/>
+    <col min="15" max="15" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -576,7 +576,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
@@ -594,7 +594,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="2:15" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:15" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
         <v>13</v>
       </c>
@@ -629,972 +629,1007 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="13">
+    <row r="5" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="15">
         <v>2024</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="16">
+        <v>3</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1899577.645</v>
+      </c>
+      <c r="E5" s="5">
+        <v>83763.125</v>
+      </c>
+      <c r="F5" s="5">
+        <v>45482.54</v>
+      </c>
+      <c r="G5" s="5">
+        <v>16424.68</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1460419.277</v>
+      </c>
+      <c r="I5" s="5">
+        <v>36359.632000000005</v>
+      </c>
+      <c r="J5" s="5">
+        <v>453776.66</v>
+      </c>
+      <c r="K5" s="5">
+        <v>58216.440999999999</v>
+      </c>
+      <c r="L5" s="6">
+        <v>342083.14600000001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="13">
+        <v>2024</v>
+      </c>
+      <c r="C6" s="14">
         <v>2</v>
       </c>
-      <c r="D5" s="7">
-        <v>1948505.1640000001</v>
-      </c>
-      <c r="E5" s="7">
-        <v>81533.982999999993</v>
-      </c>
-      <c r="F5" s="7">
-        <v>40638.817000000003</v>
-      </c>
-      <c r="G5" s="7">
-        <v>16698.879000000001</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1501038.0970000001</v>
-      </c>
-      <c r="I5" s="7">
-        <v>37775.048999999999</v>
-      </c>
-      <c r="J5" s="7">
-        <v>459797.44099999999</v>
-      </c>
-      <c r="K5" s="7">
-        <v>58979.735999999997</v>
-      </c>
-      <c r="L5" s="8">
-        <v>345209.69500000001</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B6" s="15">
+      <c r="D6" s="7">
+        <v>1939801.824</v>
+      </c>
+      <c r="E6" s="7">
+        <v>79966.350000000006</v>
+      </c>
+      <c r="F6" s="7">
+        <v>43087.73</v>
+      </c>
+      <c r="G6" s="7">
+        <v>17193.964</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1502816.6800000002</v>
+      </c>
+      <c r="I6" s="7">
+        <v>36502.175000000003</v>
+      </c>
+      <c r="J6" s="7">
+        <v>471188.424</v>
+      </c>
+      <c r="K6" s="7">
+        <v>60673.523000000001</v>
+      </c>
+      <c r="L6" s="8">
+        <v>350559.72100000002</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="15">
         <v>2024</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C7" s="16">
         <v>1</v>
       </c>
-      <c r="D6" s="5">
-        <v>1841025.936</v>
-      </c>
-      <c r="E6" s="5">
-        <v>78730.900999999998</v>
-      </c>
-      <c r="F6" s="5">
-        <v>41300.785000000003</v>
-      </c>
-      <c r="G6" s="5">
-        <v>16122.938</v>
-      </c>
-      <c r="H6" s="5">
-        <v>1421616.591</v>
-      </c>
-      <c r="I6" s="5">
-        <v>36650.623999999996</v>
-      </c>
-      <c r="J6" s="5">
-        <v>444267.10700000002</v>
-      </c>
-      <c r="K6" s="5">
-        <v>44709.54</v>
-      </c>
-      <c r="L6" s="6">
-        <v>359533.47600000002</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B7" s="13">
+      <c r="D7" s="5">
+        <v>1830493.98</v>
+      </c>
+      <c r="E7" s="5">
+        <v>77117.58</v>
+      </c>
+      <c r="F7" s="5">
+        <v>43788.525999999998</v>
+      </c>
+      <c r="G7" s="5">
+        <v>16618.82</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1420360.2239999999</v>
+      </c>
+      <c r="I7" s="5">
+        <v>35413.527999999998</v>
+      </c>
+      <c r="J7" s="5">
+        <v>454041.7</v>
+      </c>
+      <c r="K7" s="5">
+        <v>46092.067000000003</v>
+      </c>
+      <c r="L7" s="6">
+        <v>365152.47100000002</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="13">
         <v>2023</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C8" s="14">
         <v>4</v>
       </c>
-      <c r="D7" s="7">
-        <v>1826249.564</v>
-      </c>
-      <c r="E7" s="7">
-        <v>84231.417000000001</v>
-      </c>
-      <c r="F7" s="7">
-        <v>39233.353000000003</v>
-      </c>
-      <c r="G7" s="7">
-        <v>16869.133000000002</v>
-      </c>
-      <c r="H7" s="7">
-        <v>1404863.4950000001</v>
-      </c>
-      <c r="I7" s="7">
-        <v>38536.447999999997</v>
-      </c>
-      <c r="J7" s="7">
-        <v>453010.68099999998</v>
-      </c>
-      <c r="K7" s="7">
-        <v>56796.148999999998</v>
-      </c>
-      <c r="L7" s="8">
-        <v>347831.11800000002</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B8" s="15">
+      <c r="D8" s="7">
+        <v>1817423.9469999999</v>
+      </c>
+      <c r="E8" s="7">
+        <v>82478.354999999996</v>
+      </c>
+      <c r="F8" s="7">
+        <v>42454.027000000002</v>
+      </c>
+      <c r="G8" s="7">
+        <v>17607.141</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1404619.7170000002</v>
+      </c>
+      <c r="I8" s="7">
+        <v>36639.623</v>
+      </c>
+      <c r="J8" s="7">
+        <v>470290.174</v>
+      </c>
+      <c r="K8" s="7">
+        <v>59610.968999999997</v>
+      </c>
+      <c r="L8" s="8">
+        <v>359074.75599999999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="15">
         <v>2023</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C9" s="16">
         <v>3</v>
       </c>
-      <c r="D8" s="5">
-        <v>1824891.58</v>
-      </c>
-      <c r="E8" s="5">
-        <v>84323.918000000005</v>
-      </c>
-      <c r="F8" s="5">
-        <v>38917.086000000003</v>
-      </c>
-      <c r="G8" s="5">
-        <v>18414.116000000002</v>
-      </c>
-      <c r="H8" s="5">
-        <v>1407077.5220000001</v>
-      </c>
-      <c r="I8" s="5">
-        <v>37677.370999999999</v>
-      </c>
-      <c r="J8" s="5">
-        <v>436799.67</v>
-      </c>
-      <c r="K8" s="5">
-        <v>54702.589</v>
-      </c>
-      <c r="L8" s="6">
-        <v>327455.22899999999</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B9" s="13">
+      <c r="D9" s="5">
+        <v>1815473.2</v>
+      </c>
+      <c r="E9" s="5">
+        <v>82678.485000000001</v>
+      </c>
+      <c r="F9" s="5">
+        <v>41777.161999999997</v>
+      </c>
+      <c r="G9" s="5">
+        <v>19081.030999999999</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1407788.0019999999</v>
+      </c>
+      <c r="I9" s="5">
+        <v>35914.539000000004</v>
+      </c>
+      <c r="J9" s="5">
+        <v>449894.223</v>
+      </c>
+      <c r="K9" s="5">
+        <v>55900.885000000002</v>
+      </c>
+      <c r="L9" s="6">
+        <v>335793.83500000002</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="13">
         <v>2023</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C10" s="14">
         <v>2</v>
       </c>
-      <c r="D9" s="7">
-        <v>1855504.618</v>
-      </c>
-      <c r="E9" s="7">
-        <v>79026.911999999997</v>
-      </c>
-      <c r="F9" s="7">
-        <v>39890.370000000003</v>
-      </c>
-      <c r="G9" s="7">
-        <v>17879.544000000002</v>
-      </c>
-      <c r="H9" s="7">
-        <v>1443865.8429999999</v>
-      </c>
-      <c r="I9" s="7">
-        <v>38977.748000000007</v>
-      </c>
-      <c r="J9" s="7">
-        <v>477542.473</v>
-      </c>
-      <c r="K9" s="7">
-        <v>64694.868999999999</v>
-      </c>
-      <c r="L9" s="8">
-        <v>337875.75099999999</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B10" s="15">
+      <c r="D10" s="7">
+        <v>1865830.7849999999</v>
+      </c>
+      <c r="E10" s="7">
+        <v>77537.144</v>
+      </c>
+      <c r="F10" s="7">
+        <v>42120.142</v>
+      </c>
+      <c r="G10" s="7">
+        <v>18400.732</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1449960.466</v>
+      </c>
+      <c r="I10" s="7">
+        <v>37460.129000000001</v>
+      </c>
+      <c r="J10" s="7">
+        <v>470534.68199999997</v>
+      </c>
+      <c r="K10" s="7">
+        <v>66366.502999999997</v>
+      </c>
+      <c r="L10" s="8">
+        <v>341230.23599999998</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="15">
         <v>2023</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C11" s="16">
         <v>1</v>
       </c>
-      <c r="D10" s="5">
-        <v>1768571.9069999999</v>
-      </c>
-      <c r="E10" s="5">
-        <v>74829.846000000005</v>
-      </c>
-      <c r="F10" s="5">
-        <v>40334.095999999998</v>
-      </c>
-      <c r="G10" s="5">
-        <v>16460.302</v>
-      </c>
-      <c r="H10" s="5">
-        <v>1379038.8769999999</v>
-      </c>
-      <c r="I10" s="5">
-        <v>38741.973999999995</v>
-      </c>
-      <c r="J10" s="5">
-        <v>425656.42200000002</v>
-      </c>
-      <c r="K10" s="5">
-        <v>42295.781999999999</v>
-      </c>
-      <c r="L10" s="6">
-        <v>339610.67300000001</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B11" s="13">
+      <c r="D11" s="5">
+        <v>1769798.28</v>
+      </c>
+      <c r="E11" s="5">
+        <v>73498.436000000002</v>
+      </c>
+      <c r="F11" s="5">
+        <v>41516.309000000001</v>
+      </c>
+      <c r="G11" s="5">
+        <v>16775.740000000002</v>
+      </c>
+      <c r="H11" s="5">
+        <v>1379038.5869999998</v>
+      </c>
+      <c r="I11" s="5">
+        <v>37408.989000000001</v>
+      </c>
+      <c r="J11" s="5">
+        <v>424167.10100000002</v>
+      </c>
+      <c r="K11" s="5">
+        <v>43226.271000000001</v>
+      </c>
+      <c r="L11" s="6">
+        <v>336835.337</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="13">
         <v>2022</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C12" s="14">
         <v>4</v>
       </c>
-      <c r="D11" s="7">
-        <v>1803758.7760000001</v>
-      </c>
-      <c r="E11" s="7">
-        <v>78231.879000000001</v>
-      </c>
-      <c r="F11" s="7">
-        <v>37874.627999999997</v>
-      </c>
-      <c r="G11" s="7">
-        <v>16132.758</v>
-      </c>
-      <c r="H11" s="7">
-        <v>1397409.6189999999</v>
-      </c>
-      <c r="I11" s="7">
-        <v>38571.370999999999</v>
-      </c>
-      <c r="J11" s="7">
-        <v>455593.93599999999</v>
-      </c>
-      <c r="K11" s="7">
-        <v>76667.258000000002</v>
-      </c>
-      <c r="L11" s="8">
-        <v>324933.21000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B12" s="15">
+      <c r="D12" s="7">
+        <v>1793008.297</v>
+      </c>
+      <c r="E12" s="7">
+        <v>78096.396999999997</v>
+      </c>
+      <c r="F12" s="7">
+        <v>38845.192000000003</v>
+      </c>
+      <c r="G12" s="7">
+        <v>16286.383</v>
+      </c>
+      <c r="H12" s="7">
+        <v>1388944.2150000001</v>
+      </c>
+      <c r="I12" s="7">
+        <v>38318.297000000006</v>
+      </c>
+      <c r="J12" s="7">
+        <v>462735.25</v>
+      </c>
+      <c r="K12" s="7">
+        <v>77211.544999999998</v>
+      </c>
+      <c r="L12" s="8">
+        <v>330554.84000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="15">
         <v>2022</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C13" s="16">
         <v>3</v>
       </c>
-      <c r="D12" s="5">
-        <v>1786513.2819999999</v>
-      </c>
-      <c r="E12" s="5">
-        <v>75088.350999999995</v>
-      </c>
-      <c r="F12" s="5">
-        <v>40417.661</v>
-      </c>
-      <c r="G12" s="5">
-        <v>17835.682000000001</v>
-      </c>
-      <c r="H12" s="5">
-        <v>1379736.811</v>
-      </c>
-      <c r="I12" s="5">
-        <v>34864.396999999997</v>
-      </c>
-      <c r="J12" s="5">
-        <v>397462.28100000002</v>
-      </c>
-      <c r="K12" s="5">
-        <v>53427.777999999998</v>
-      </c>
-      <c r="L12" s="6">
-        <v>292687.33</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B13" s="13">
+      <c r="D13" s="5">
+        <v>1781127.6359999999</v>
+      </c>
+      <c r="E13" s="5">
+        <v>75094.92</v>
+      </c>
+      <c r="F13" s="5">
+        <v>40448.341</v>
+      </c>
+      <c r="G13" s="5">
+        <v>17829.059000000001</v>
+      </c>
+      <c r="H13" s="5">
+        <v>1374274.112</v>
+      </c>
+      <c r="I13" s="5">
+        <v>34863.303</v>
+      </c>
+      <c r="J13" s="5">
+        <v>397458.95699999999</v>
+      </c>
+      <c r="K13" s="5">
+        <v>53376.014999999999</v>
+      </c>
+      <c r="L13" s="6">
+        <v>292736.36300000001</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="13">
         <v>2022</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C14" s="14">
         <v>2</v>
       </c>
-      <c r="D13" s="7">
-        <v>1794614.2150000001</v>
-      </c>
-      <c r="E13" s="7">
-        <v>72388.679000000004</v>
-      </c>
-      <c r="F13" s="7">
-        <v>39087.455999999998</v>
-      </c>
-      <c r="G13" s="7">
-        <v>17835.797999999999</v>
-      </c>
-      <c r="H13" s="7">
-        <v>1394453.507</v>
-      </c>
-      <c r="I13" s="7">
-        <v>36319.68</v>
-      </c>
-      <c r="J13" s="7">
-        <v>428402.31400000001</v>
-      </c>
-      <c r="K13" s="7">
-        <v>55314.290999999997</v>
-      </c>
-      <c r="L13" s="8">
-        <v>311931.75</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B14" s="15">
+      <c r="D14" s="7">
+        <v>1791493.2220000001</v>
+      </c>
+      <c r="E14" s="7">
+        <v>72456.710999999996</v>
+      </c>
+      <c r="F14" s="7">
+        <v>38616.720000000001</v>
+      </c>
+      <c r="G14" s="7">
+        <v>17754.489000000001</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1390053.868</v>
+      </c>
+      <c r="I14" s="7">
+        <v>36440.546000000002</v>
+      </c>
+      <c r="J14" s="7">
+        <v>424827.46899999998</v>
+      </c>
+      <c r="K14" s="7">
+        <v>55042.03</v>
+      </c>
+      <c r="L14" s="8">
+        <v>309235.36099999998</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="15">
         <v>2022</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C15" s="16">
         <v>1</v>
       </c>
-      <c r="D14" s="5">
-        <v>1652049.7520000001</v>
-      </c>
-      <c r="E14" s="5">
-        <v>62273.506999999998</v>
-      </c>
-      <c r="F14" s="5">
-        <v>39922.703000000001</v>
-      </c>
-      <c r="G14" s="5">
-        <v>15953.852999999999</v>
-      </c>
-      <c r="H14" s="5">
-        <v>1294903.3429999999</v>
-      </c>
-      <c r="I14" s="5">
-        <v>36328.084000000003</v>
-      </c>
-      <c r="J14" s="5">
-        <v>408802.46100000001</v>
-      </c>
-      <c r="K14" s="5">
-        <v>45334.349000000002</v>
-      </c>
-      <c r="L14" s="6">
-        <v>323689.87400000001</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B15" s="13">
+      <c r="D15" s="5">
+        <v>1651343.051</v>
+      </c>
+      <c r="E15" s="5">
+        <v>62334.387000000002</v>
+      </c>
+      <c r="F15" s="5">
+        <v>39392.195</v>
+      </c>
+      <c r="G15" s="5">
+        <v>15888.161</v>
+      </c>
+      <c r="H15" s="5">
+        <v>1293012.648</v>
+      </c>
+      <c r="I15" s="5">
+        <v>36461.385999999999</v>
+      </c>
+      <c r="J15" s="5">
+        <v>405239.31400000001</v>
+      </c>
+      <c r="K15" s="5">
+        <v>45114.086000000003</v>
+      </c>
+      <c r="L15" s="6">
+        <v>320715.59899999999</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="13">
         <v>2021</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C16" s="14">
         <v>4</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D16" s="7">
         <v>1669255.32</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E16" s="7">
         <v>68194.721999999994</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F16" s="7">
         <v>40021</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G16" s="7">
         <v>17238.009999999998</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H16" s="7">
         <v>1284426.1710000001</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I16" s="7">
         <v>39133.508999999998</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J16" s="7">
         <v>404526.93699999998</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K16" s="7">
         <v>50277.087</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L16" s="8">
         <v>305090.84100000001</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B16" s="15">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="15">
         <v>2021</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C17" s="16">
         <v>3</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D17" s="5">
         <v>1588299.804</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E17" s="5">
         <v>61661.207000000002</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F17" s="5">
         <v>41920.038999999997</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G17" s="5">
         <v>17541.276999999998</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H17" s="5">
         <v>1226602.686</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I17" s="5">
         <v>34023.968000000001</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J17" s="5">
         <v>369285.56800000003</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K17" s="5">
         <v>41058.044000000002</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L17" s="6">
         <v>283388.99200000003</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B17" s="13">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="13">
         <v>2021</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C18" s="14">
         <v>2</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D18" s="7">
         <v>1586398.6710000001</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E18" s="7">
         <v>55986.597000000002</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F18" s="7">
         <v>41825.332000000002</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G18" s="7">
         <v>17246.403999999999</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H18" s="7">
         <v>1230833.2069999999</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I18" s="7">
         <v>31772.227000000003</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J18" s="7">
         <v>370119.02299999999</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K18" s="7">
         <v>30562.583999999999</v>
       </c>
-      <c r="L17" s="8">
+      <c r="L18" s="8">
         <v>295772.97499999998</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B18" s="15">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="15">
         <v>2021</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C19" s="16">
         <v>1</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D19" s="5">
         <v>1432686.8389999999</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E19" s="5">
         <v>40266.410000000003</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F19" s="5">
         <v>38760.824999999997</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G19" s="5">
         <v>15102.422</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H19" s="5">
         <v>1125591.8489999999</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I19" s="5">
         <v>30497.906999999999</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J19" s="5">
         <v>355093.79800000001</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K19" s="5">
         <v>34025.637000000002</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L19" s="6">
         <v>293072.50699999998</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B19" s="13">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="13">
         <v>2020</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C20" s="14">
         <v>4</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D20" s="7">
         <v>1452654.1580000001</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E20" s="7">
         <v>43221.267</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F20" s="7">
         <v>37610.368000000002</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G20" s="7">
         <v>15153.306</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H20" s="7">
         <v>1142195.0209999999</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I20" s="7">
         <v>32368.103999999999</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J20" s="7">
         <v>383060.71799999999</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K20" s="7">
         <v>43233.413999999997</v>
       </c>
-      <c r="L19" s="8">
+      <c r="L20" s="8">
         <v>303418.36900000001</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B20" s="15">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="15">
         <v>2020</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C21" s="16">
         <v>3</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D21" s="5">
         <v>1324804.855</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E21" s="5">
         <v>27809.295999999998</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F21" s="5">
         <v>39988.853000000003</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G21" s="5">
         <v>14755.734</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H21" s="5">
         <v>1054383.128</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I21" s="5">
         <v>32446.451999999997</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J21" s="5">
         <v>339426.875</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K21" s="5">
         <v>30997.702000000001</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L21" s="6">
         <v>275969.978</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B21" s="13">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="13">
         <v>2020</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C22" s="14">
         <v>2</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D22" s="7">
         <v>1046741.801</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E22" s="7">
         <v>8583.2569999999996</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F22" s="7">
         <v>33735.362999999998</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G22" s="7">
         <v>14809.057000000001</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H22" s="7">
         <v>833504.78299999994</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I22" s="7">
         <v>24298.183000000001</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J22" s="7">
         <v>319719.19</v>
       </c>
-      <c r="K21" s="7">
+      <c r="K22" s="7">
         <v>19094.003000000001</v>
       </c>
-      <c r="L21" s="8">
+      <c r="L22" s="8">
         <v>272925.56</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B22" s="15">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="15">
         <v>2020</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C23" s="16">
         <v>1</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D23" s="5">
         <v>1601364.0619999999</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E23" s="5">
         <v>67912.129000000001</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F23" s="5">
         <v>39490.457000000002</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G23" s="5">
         <v>16236.735000000001</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H23" s="5">
         <v>1261790.388</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I23" s="5">
         <v>25766.957000000002</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J23" s="5">
         <v>355067.17800000001</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K23" s="5">
         <v>29255.016</v>
       </c>
-      <c r="L22" s="6">
+      <c r="L23" s="6">
         <v>280637.14899999998</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B23" s="13">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="13">
         <v>2019</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C24" s="14">
         <v>4</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D24" s="7">
         <v>1655099.473</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E24" s="7">
         <v>74664.42</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F24" s="7">
         <v>38606.845000000001</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G24" s="7">
         <v>16895.731</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H24" s="7">
         <v>1299653.307</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I24" s="7">
         <v>28479.141</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J24" s="7">
         <v>408224.50400000002</v>
       </c>
-      <c r="K23" s="7">
+      <c r="K24" s="7">
         <v>48010.567999999999</v>
       </c>
-      <c r="L23" s="8">
+      <c r="L24" s="8">
         <v>302433.20799999998</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B24" s="15">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="15">
         <v>2019</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C25" s="16">
         <v>3</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D25" s="5">
         <v>1676783.26</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E25" s="5">
         <v>71016.017000000007</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F25" s="5">
         <v>41520.222999999998</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G25" s="5">
         <v>18625.53</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H25" s="5">
         <v>1328113.648</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I25" s="5">
         <v>28121.506000000001</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J25" s="5">
         <v>392270.07199999999</v>
       </c>
-      <c r="K24" s="5">
+      <c r="K25" s="5">
         <v>37102.976000000002</v>
       </c>
-      <c r="L24" s="6">
+      <c r="L25" s="6">
         <v>285182.84299999999</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B25" s="13">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="13">
         <v>2019</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C26" s="14">
         <v>2</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D26" s="7">
         <v>1668227.7890000001</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E26" s="7">
         <v>67499.47</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F26" s="7">
         <v>39867.446000000004</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G26" s="7">
         <v>19163.186000000002</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H26" s="7">
         <v>1323087.8740000001</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I26" s="7">
         <v>24555.73</v>
       </c>
-      <c r="J25" s="7">
+      <c r="J26" s="7">
         <v>368031.47899999999</v>
       </c>
-      <c r="K25" s="7">
+      <c r="K26" s="7">
         <v>31320.612000000001</v>
       </c>
-      <c r="L25" s="8">
+      <c r="L26" s="8">
         <v>262790.89299999998</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B26" s="15">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="15">
         <v>2019</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C27" s="16">
         <v>1</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D27" s="5">
         <v>1625188.4310000001</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E27" s="5">
         <v>61898.733</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F27" s="5">
         <v>35846.798000000003</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G27" s="5">
         <v>18148.453000000001</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H27" s="5">
         <v>1301893.75</v>
       </c>
-      <c r="I26" s="5">
+      <c r="I27" s="5">
         <v>23403.891</v>
       </c>
-      <c r="J26" s="5">
+      <c r="J27" s="5">
         <v>352168.88500000001</v>
       </c>
-      <c r="K26" s="5">
+      <c r="K27" s="5">
         <v>31974.864000000001</v>
       </c>
-      <c r="L26" s="6">
+      <c r="L27" s="6">
         <v>265179.05200000003</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B27" s="13">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="13">
         <v>2018</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C28" s="14">
         <v>4</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D28" s="7">
         <v>1675794.5209999999</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E28" s="7">
         <v>65114.981</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F28" s="7">
         <v>39863.557999999997</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G28" s="7">
         <v>18252.773000000001</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H28" s="7">
         <v>1326813.281</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I28" s="7">
         <v>26605.802</v>
       </c>
-      <c r="J27" s="7">
+      <c r="J28" s="7">
         <v>399180.39899999998</v>
       </c>
-      <c r="K27" s="7">
+      <c r="K28" s="7">
         <v>53891.851000000002</v>
       </c>
-      <c r="L27" s="8">
+      <c r="L28" s="8">
         <v>284916.50900000002</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B28" s="15">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="15">
         <v>2018</v>
       </c>
-      <c r="C28" s="16">
+      <c r="C29" s="16">
         <v>3</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D29" s="5">
         <v>1672501.388</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E29" s="5">
         <v>65164.949000000001</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F29" s="5">
         <v>39089.053999999996</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G29" s="5">
         <v>19922.897000000001</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H29" s="5">
         <v>1320754.638</v>
       </c>
-      <c r="I28" s="5">
+      <c r="I29" s="5">
         <v>26650.108999999997</v>
       </c>
-      <c r="J28" s="5">
+      <c r="J29" s="5">
         <v>371727.96500000003</v>
       </c>
-      <c r="K28" s="5">
+      <c r="K29" s="5">
         <v>44258.788</v>
       </c>
-      <c r="L28" s="6">
+      <c r="L29" s="6">
         <v>260398.114</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B29" s="13">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="13">
         <v>2018</v>
       </c>
-      <c r="C29" s="14">
+      <c r="C30" s="14">
         <v>2</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D30" s="7">
         <v>1663414.6129999999</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E30" s="7">
         <v>62999.917999999998</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F30" s="7">
         <v>39828.671999999999</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G30" s="7">
         <v>19551.669000000002</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H30" s="7">
         <v>1310572.75</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I30" s="7">
         <v>25610.445</v>
       </c>
-      <c r="J29" s="7">
+      <c r="J30" s="7">
         <v>373964.217</v>
       </c>
-      <c r="K29" s="7">
+      <c r="K30" s="7">
         <v>34893.394999999997</v>
       </c>
-      <c r="L29" s="8">
+      <c r="L30" s="8">
         <v>267708.32500000001</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B30" s="17">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="17">
         <v>2018</v>
       </c>
-      <c r="C30" s="18">
+      <c r="C31" s="18">
         <v>1</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D31" s="9">
         <v>1603128.9979999999</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E31" s="9">
         <v>61018.131999999998</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F31" s="9">
         <v>35221.373</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G31" s="9">
         <v>18129.357</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H31" s="9">
         <v>1271867.3829999999</v>
       </c>
-      <c r="I30" s="9">
+      <c r="I31" s="9">
         <v>23237.167999999998</v>
       </c>
-      <c r="J30" s="9">
+      <c r="J31" s="9">
         <v>340170.12</v>
       </c>
-      <c r="K30" s="9">
+      <c r="K31" s="9">
         <v>33427.034</v>
       </c>
-      <c r="L30" s="10">
+      <c r="L31" s="10">
         <v>252952.67199999999</v>
       </c>
     </row>
-    <row r="31" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="2" t="s">
+    <row r="32" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B32" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="C32" s="2"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B33" s="12" t="s">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B34" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="12" t="s">
+    <row r="35" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B35" s="12" t="s">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B36" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B36" s="12" t="s">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B37" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B37" s="12" t="s">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B38" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C37" s="2"/>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
         <v>0</v>
       </c>
     </row>

--- a/PIB_SCT.xlsx
+++ b/PIB_SCT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF8FF44-FB89-41F5-85D4-2E610CB89A7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679C0623-7190-4A20-B059-01C799B36346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -99,7 +99,7 @@
     <t>(Millones de pesos anualizados  a precios de 2018)</t>
   </si>
   <si>
-    <t>Actualización: Octubre 2024.</t>
+    <t>Actualización: Noviembre 2024.</t>
   </si>
 </sst>
 </file>
@@ -118,23 +118,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Geomanist"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Geomanist"/>
-      <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
@@ -144,11 +131,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Geomanist"/>
+      <name val="Noto Sans"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -246,51 +248,52 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="3"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -539,26 +542,27 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="5.5" customWidth="1"/>
-    <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="21.375" customWidth="1"/>
-    <col min="5" max="5" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" customWidth="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="10.875" customWidth="1"/>
-    <col min="9" max="9" width="17.375" customWidth="1"/>
-    <col min="10" max="10" width="14.375" customWidth="1"/>
-    <col min="11" max="11" width="10.125" customWidth="1"/>
-    <col min="12" max="12" width="18.75" customWidth="1"/>
-    <col min="13" max="13" width="8.375" customWidth="1"/>
-    <col min="14" max="14" width="8.625" customWidth="1"/>
-    <col min="15" max="15" width="8.75" customWidth="1"/>
+    <col min="1" max="1" width="5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="5.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9" style="3" customWidth="1"/>
+    <col min="4" max="4" width="21.375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="17.375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="14.375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="10.125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="18.75" style="3" customWidth="1"/>
+    <col min="13" max="13" width="8.375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="8.625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="8.75" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -576,7 +580,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
@@ -594,1047 +598,1047 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="2:15" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
+    <row r="4" spans="2:15" s="5" customFormat="1" ht="78" x14ac:dyDescent="0.45">
+      <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="15">
+    <row r="5" spans="2:15" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="6">
         <v>2024</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="7">
         <v>3</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="8">
         <v>1899577.645</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="8">
         <v>83763.125</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="8">
         <v>45482.54</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="8">
         <v>16424.68</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="8">
         <v>1460419.277</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="8">
         <v>36359.632000000005</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="8">
         <v>453776.66</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="8">
         <v>58216.440999999999</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="9">
         <v>342083.14600000001</v>
       </c>
     </row>
-    <row r="6" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="13">
+    <row r="6" spans="2:15" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="10">
         <v>2024</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="11">
         <v>2</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="12">
         <v>1939801.824</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="12">
         <v>79966.350000000006</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="12">
         <v>43087.73</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="12">
         <v>17193.964</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="12">
         <v>1502816.6800000002</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="12">
         <v>36502.175000000003</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="12">
         <v>471188.424</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="12">
         <v>60673.523000000001</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="13">
         <v>350559.72100000002</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="15">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B7" s="6">
         <v>2024</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="7">
         <v>1</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="8">
         <v>1830493.98</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="8">
         <v>77117.58</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="8">
         <v>43788.525999999998</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="8">
         <v>16618.82</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="8">
         <v>1420360.2239999999</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="8">
         <v>35413.527999999998</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="8">
         <v>454041.7</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="8">
         <v>46092.067000000003</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="9">
         <v>365152.47100000002</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="13">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B8" s="10">
         <v>2023</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="11">
         <v>4</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="12">
         <v>1817423.9469999999</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="12">
         <v>82478.354999999996</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="12">
         <v>42454.027000000002</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="12">
         <v>17607.141</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="12">
         <v>1404619.7170000002</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="12">
         <v>36639.623</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="12">
         <v>470290.174</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="12">
         <v>59610.968999999997</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="13">
         <v>359074.75599999999</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="15">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B9" s="6">
         <v>2023</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="7">
         <v>3</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="8">
         <v>1815473.2</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="8">
         <v>82678.485000000001</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="8">
         <v>41777.161999999997</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="8">
         <v>19081.030999999999</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="8">
         <v>1407788.0019999999</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="8">
         <v>35914.539000000004</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="8">
         <v>449894.223</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="8">
         <v>55900.885000000002</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="9">
         <v>335793.83500000002</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="13">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B10" s="10">
         <v>2023</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="11">
         <v>2</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="12">
         <v>1865830.7849999999</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="12">
         <v>77537.144</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="12">
         <v>42120.142</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="12">
         <v>18400.732</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="12">
         <v>1449960.466</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="12">
         <v>37460.129000000001</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="12">
         <v>470534.68199999997</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="12">
         <v>66366.502999999997</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10" s="13">
         <v>341230.23599999998</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="15">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B11" s="6">
         <v>2023</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="7">
         <v>1</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="8">
         <v>1769798.28</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="8">
         <v>73498.436000000002</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="8">
         <v>41516.309000000001</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="8">
         <v>16775.740000000002</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="8">
         <v>1379038.5869999998</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="8">
         <v>37408.989000000001</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="8">
         <v>424167.10100000002</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="8">
         <v>43226.271000000001</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="9">
         <v>336835.337</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="13">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B12" s="10">
         <v>2022</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="11">
         <v>4</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="12">
         <v>1793008.297</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="12">
         <v>78096.396999999997</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="12">
         <v>38845.192000000003</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="12">
         <v>16286.383</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="12">
         <v>1388944.2150000001</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="12">
         <v>38318.297000000006</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="12">
         <v>462735.25</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="12">
         <v>77211.544999999998</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="13">
         <v>330554.84000000003</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="15">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B13" s="6">
         <v>2022</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="7">
         <v>3</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="8">
         <v>1781127.6359999999</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="8">
         <v>75094.92</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="8">
         <v>40448.341</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="8">
         <v>17829.059000000001</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="8">
         <v>1374274.112</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="8">
         <v>34863.303</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="8">
         <v>397458.95699999999</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="8">
         <v>53376.014999999999</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="9">
         <v>292736.36300000001</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="13">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B14" s="10">
         <v>2022</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="11">
         <v>2</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="12">
         <v>1791493.2220000001</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="12">
         <v>72456.710999999996</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="12">
         <v>38616.720000000001</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="12">
         <v>17754.489000000001</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="12">
         <v>1390053.868</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="12">
         <v>36440.546000000002</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="12">
         <v>424827.46899999998</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="12">
         <v>55042.03</v>
       </c>
-      <c r="L14" s="8">
+      <c r="L14" s="13">
         <v>309235.36099999998</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="15">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B15" s="6">
         <v>2022</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="7">
         <v>1</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="8">
         <v>1651343.051</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="8">
         <v>62334.387000000002</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="8">
         <v>39392.195</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="8">
         <v>15888.161</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="8">
         <v>1293012.648</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="8">
         <v>36461.385999999999</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="8">
         <v>405239.31400000001</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="8">
         <v>45114.086000000003</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L15" s="9">
         <v>320715.59899999999</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="13">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B16" s="10">
         <v>2021</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="11">
         <v>4</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="12">
         <v>1669255.32</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="12">
         <v>68194.721999999994</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="12">
         <v>40021</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="12">
         <v>17238.009999999998</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="12">
         <v>1284426.1710000001</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="12">
         <v>39133.508999999998</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="12">
         <v>404526.93699999998</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="12">
         <v>50277.087</v>
       </c>
-      <c r="L16" s="8">
+      <c r="L16" s="13">
         <v>305090.84100000001</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="15">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B17" s="6">
         <v>2021</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="7">
         <v>3</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="8">
         <v>1588299.804</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="8">
         <v>61661.207000000002</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="8">
         <v>41920.038999999997</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="8">
         <v>17541.276999999998</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="8">
         <v>1226602.686</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="8">
         <v>34023.968000000001</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="8">
         <v>369285.56800000003</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="8">
         <v>41058.044000000002</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17" s="9">
         <v>283388.99200000003</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="13">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B18" s="10">
         <v>2021</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="11">
         <v>2</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="12">
         <v>1586398.6710000001</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="12">
         <v>55986.597000000002</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="12">
         <v>41825.332000000002</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="12">
         <v>17246.403999999999</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="12">
         <v>1230833.2069999999</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="12">
         <v>31772.227000000003</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="12">
         <v>370119.02299999999</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="12">
         <v>30562.583999999999</v>
       </c>
-      <c r="L18" s="8">
+      <c r="L18" s="13">
         <v>295772.97499999998</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="15">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B19" s="6">
         <v>2021</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="7">
         <v>1</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="8">
         <v>1432686.8389999999</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="8">
         <v>40266.410000000003</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="8">
         <v>38760.824999999997</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="8">
         <v>15102.422</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="8">
         <v>1125591.8489999999</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="8">
         <v>30497.906999999999</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="8">
         <v>355093.79800000001</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="8">
         <v>34025.637000000002</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L19" s="9">
         <v>293072.50699999998</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="13">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B20" s="10">
         <v>2020</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="11">
         <v>4</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="12">
         <v>1452654.1580000001</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="12">
         <v>43221.267</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="12">
         <v>37610.368000000002</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="12">
         <v>15153.306</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="12">
         <v>1142195.0209999999</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="12">
         <v>32368.103999999999</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="12">
         <v>383060.71799999999</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K20" s="12">
         <v>43233.413999999997</v>
       </c>
-      <c r="L20" s="8">
+      <c r="L20" s="13">
         <v>303418.36900000001</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="15">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B21" s="6">
         <v>2020</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="7">
         <v>3</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="8">
         <v>1324804.855</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="8">
         <v>27809.295999999998</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="8">
         <v>39988.853000000003</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="8">
         <v>14755.734</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="8">
         <v>1054383.128</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="8">
         <v>32446.451999999997</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="8">
         <v>339426.875</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K21" s="8">
         <v>30997.702000000001</v>
       </c>
-      <c r="L21" s="6">
+      <c r="L21" s="9">
         <v>275969.978</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="13">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B22" s="10">
         <v>2020</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="11">
         <v>2</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="12">
         <v>1046741.801</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="12">
         <v>8583.2569999999996</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="12">
         <v>33735.362999999998</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="12">
         <v>14809.057000000001</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="12">
         <v>833504.78299999994</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="12">
         <v>24298.183000000001</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J22" s="12">
         <v>319719.19</v>
       </c>
-      <c r="K22" s="7">
+      <c r="K22" s="12">
         <v>19094.003000000001</v>
       </c>
-      <c r="L22" s="8">
+      <c r="L22" s="13">
         <v>272925.56</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="15">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B23" s="6">
         <v>2020</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23" s="7">
         <v>1</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="8">
         <v>1601364.0619999999</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="8">
         <v>67912.129000000001</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="8">
         <v>39490.457000000002</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="8">
         <v>16236.735000000001</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="8">
         <v>1261790.388</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="8">
         <v>25766.957000000002</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23" s="8">
         <v>355067.17800000001</v>
       </c>
-      <c r="K23" s="5">
+      <c r="K23" s="8">
         <v>29255.016</v>
       </c>
-      <c r="L23" s="6">
+      <c r="L23" s="9">
         <v>280637.14899999998</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="13">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B24" s="10">
         <v>2019</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="11">
         <v>4</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="12">
         <v>1655099.473</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="12">
         <v>74664.42</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="12">
         <v>38606.845000000001</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="12">
         <v>16895.731</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="12">
         <v>1299653.307</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="12">
         <v>28479.141</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J24" s="12">
         <v>408224.50400000002</v>
       </c>
-      <c r="K24" s="7">
+      <c r="K24" s="12">
         <v>48010.567999999999</v>
       </c>
-      <c r="L24" s="8">
+      <c r="L24" s="13">
         <v>302433.20799999998</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="15">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B25" s="6">
         <v>2019</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25" s="7">
         <v>3</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="8">
         <v>1676783.26</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="8">
         <v>71016.017000000007</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="8">
         <v>41520.222999999998</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="8">
         <v>18625.53</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25" s="8">
         <v>1328113.648</v>
       </c>
-      <c r="I25" s="5">
+      <c r="I25" s="8">
         <v>28121.506000000001</v>
       </c>
-      <c r="J25" s="5">
+      <c r="J25" s="8">
         <v>392270.07199999999</v>
       </c>
-      <c r="K25" s="5">
+      <c r="K25" s="8">
         <v>37102.976000000002</v>
       </c>
-      <c r="L25" s="6">
+      <c r="L25" s="9">
         <v>285182.84299999999</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="13">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B26" s="10">
         <v>2019</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="11">
         <v>2</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="12">
         <v>1668227.7890000001</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="12">
         <v>67499.47</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="12">
         <v>39867.446000000004</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="12">
         <v>19163.186000000002</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="12">
         <v>1323087.8740000001</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="12">
         <v>24555.73</v>
       </c>
-      <c r="J26" s="7">
+      <c r="J26" s="12">
         <v>368031.47899999999</v>
       </c>
-      <c r="K26" s="7">
+      <c r="K26" s="12">
         <v>31320.612000000001</v>
       </c>
-      <c r="L26" s="8">
+      <c r="L26" s="13">
         <v>262790.89299999998</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="15">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B27" s="6">
         <v>2019</v>
       </c>
-      <c r="C27" s="16">
+      <c r="C27" s="7">
         <v>1</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="8">
         <v>1625188.4310000001</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="8">
         <v>61898.733</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="8">
         <v>35846.798000000003</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="8">
         <v>18148.453000000001</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27" s="8">
         <v>1301893.75</v>
       </c>
-      <c r="I27" s="5">
+      <c r="I27" s="8">
         <v>23403.891</v>
       </c>
-      <c r="J27" s="5">
+      <c r="J27" s="8">
         <v>352168.88500000001</v>
       </c>
-      <c r="K27" s="5">
+      <c r="K27" s="8">
         <v>31974.864000000001</v>
       </c>
-      <c r="L27" s="6">
+      <c r="L27" s="9">
         <v>265179.05200000003</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="13">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B28" s="10">
         <v>2018</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="11">
         <v>4</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="12">
         <v>1675794.5209999999</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="12">
         <v>65114.981</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="12">
         <v>39863.557999999997</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="12">
         <v>18252.773000000001</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="12">
         <v>1326813.281</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="12">
         <v>26605.802</v>
       </c>
-      <c r="J28" s="7">
+      <c r="J28" s="12">
         <v>399180.39899999998</v>
       </c>
-      <c r="K28" s="7">
+      <c r="K28" s="12">
         <v>53891.851000000002</v>
       </c>
-      <c r="L28" s="8">
+      <c r="L28" s="13">
         <v>284916.50900000002</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="15">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B29" s="6">
         <v>2018</v>
       </c>
-      <c r="C29" s="16">
+      <c r="C29" s="7">
         <v>3</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="8">
         <v>1672501.388</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="8">
         <v>65164.949000000001</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="8">
         <v>39089.053999999996</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="8">
         <v>19922.897000000001</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29" s="8">
         <v>1320754.638</v>
       </c>
-      <c r="I29" s="5">
+      <c r="I29" s="8">
         <v>26650.108999999997</v>
       </c>
-      <c r="J29" s="5">
+      <c r="J29" s="8">
         <v>371727.96500000003</v>
       </c>
-      <c r="K29" s="5">
+      <c r="K29" s="8">
         <v>44258.788</v>
       </c>
-      <c r="L29" s="6">
+      <c r="L29" s="9">
         <v>260398.114</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="13">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B30" s="10">
         <v>2018</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="11">
         <v>2</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="12">
         <v>1663414.6129999999</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="12">
         <v>62999.917999999998</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="12">
         <v>39828.671999999999</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G30" s="12">
         <v>19551.669000000002</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H30" s="12">
         <v>1310572.75</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="12">
         <v>25610.445</v>
       </c>
-      <c r="J30" s="7">
+      <c r="J30" s="12">
         <v>373964.217</v>
       </c>
-      <c r="K30" s="7">
+      <c r="K30" s="12">
         <v>34893.394999999997</v>
       </c>
-      <c r="L30" s="8">
+      <c r="L30" s="13">
         <v>267708.32500000001</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="17">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B31" s="14">
         <v>2018</v>
       </c>
-      <c r="C31" s="18">
+      <c r="C31" s="15">
         <v>1</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="16">
         <v>1603128.9979999999</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="16">
         <v>61018.131999999998</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F31" s="16">
         <v>35221.373</v>
       </c>
-      <c r="G31" s="9">
+      <c r="G31" s="16">
         <v>18129.357</v>
       </c>
-      <c r="H31" s="9">
+      <c r="H31" s="16">
         <v>1271867.3829999999</v>
       </c>
-      <c r="I31" s="9">
+      <c r="I31" s="16">
         <v>23237.167999999998</v>
       </c>
-      <c r="J31" s="9">
+      <c r="J31" s="16">
         <v>340170.12</v>
       </c>
-      <c r="K31" s="9">
+      <c r="K31" s="16">
         <v>33427.034</v>
       </c>
-      <c r="L31" s="10">
+      <c r="L31" s="17">
         <v>252952.67199999999</v>
       </c>
     </row>
-    <row r="32" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C32" s="2"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B33" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="12" t="s">
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B34" s="19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="12" t="s">
+    <row r="35" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B36" s="12" t="s">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B36" s="19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B37" s="12" t="s">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B37" s="19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B38" s="12" t="s">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B38" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B39" s="2" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/PIB_SCT.xlsx
+++ b/PIB_SCT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679C0623-7190-4A20-B059-01C799B36346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B543988-1747-48CB-B754-5A72CD05B248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Fuente: INEGI. Producto Interno Bruto por Entidad Federativa (PIBE). Año base 2018. En: www.inegi.org.mx.</t>
   </si>
@@ -53,9 +53,6 @@
     <t>PIB ferroviario</t>
   </si>
   <si>
-    <t>PIB marítimo</t>
-  </si>
-  <si>
     <t>PIB carretero</t>
   </si>
   <si>
@@ -81,9 +78,6 @@
   </si>
   <si>
     <t xml:space="preserve">  Cifras actualizadas a pecios de 2018=100.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  El concepto PIB transporte, correos y almacenamiento. Incluye transporte por ductos, transporte turístico, servicios relacionados con el transporte, y servicios de almacenamiento.</t>
   </si>
   <si>
     <t xml:space="preserve">  El concepto PIB en Servicios postales. Incluye servicios postales y servicios de mensajería y paquetería.</t>
@@ -100,6 +94,9 @@
   </si>
   <si>
     <t>Actualización: Noviembre 2024.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  El concepto PIB transporte, correos y almacenamiento, incluye transporte maritimo, transporte por ductos, transporte turístico, servicios relacionados con el transporte, y servicios de almacenamiento.</t>
   </si>
 </sst>
 </file>
@@ -536,7 +533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O39"/>
+  <dimension ref="B2:N39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -550,19 +547,18 @@
     <col min="4" max="4" width="21.375" style="3" customWidth="1"/>
     <col min="5" max="5" width="8.75" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="11" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="17.375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="14.375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="10.125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="18.75" style="3" customWidth="1"/>
-    <col min="13" max="13" width="8.375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="8.625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="8.75" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="11" style="3"/>
+    <col min="7" max="7" width="10.875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="17.375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="14.375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="10.125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="18.75" style="3" customWidth="1"/>
+    <col min="12" max="12" width="8.375" style="3" customWidth="1"/>
+    <col min="13" max="13" width="8.625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="8.75" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -578,11 +574,10 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -596,14 +591,13 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-    </row>
-    <row r="4" spans="2:15" s="5" customFormat="1" ht="78" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="2:14" s="5" customFormat="1" ht="78" x14ac:dyDescent="0.45">
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>2</v>
@@ -629,11 +623,8 @@
       <c r="K4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B5" s="6">
         <v>2024</v>
       </c>
@@ -650,25 +641,22 @@
         <v>45482.54</v>
       </c>
       <c r="G5" s="8">
-        <v>16424.68</v>
+        <v>1460419.277</v>
       </c>
       <c r="H5" s="8">
-        <v>1460419.277</v>
+        <v>36359.632000000005</v>
       </c>
       <c r="I5" s="8">
-        <v>36359.632000000005</v>
+        <v>453776.66</v>
       </c>
       <c r="J5" s="8">
-        <v>453776.66</v>
-      </c>
-      <c r="K5" s="8">
         <v>58216.440999999999</v>
       </c>
-      <c r="L5" s="9">
+      <c r="K5" s="9">
         <v>342083.14600000001</v>
       </c>
     </row>
-    <row r="6" spans="2:15" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B6" s="10">
         <v>2024</v>
       </c>
@@ -685,25 +673,22 @@
         <v>43087.73</v>
       </c>
       <c r="G6" s="12">
-        <v>17193.964</v>
+        <v>1502816.6800000002</v>
       </c>
       <c r="H6" s="12">
-        <v>1502816.6800000002</v>
+        <v>36502.175000000003</v>
       </c>
       <c r="I6" s="12">
-        <v>36502.175000000003</v>
+        <v>471188.424</v>
       </c>
       <c r="J6" s="12">
-        <v>471188.424</v>
-      </c>
-      <c r="K6" s="12">
         <v>60673.523000000001</v>
       </c>
-      <c r="L6" s="13">
+      <c r="K6" s="13">
         <v>350559.72100000002</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B7" s="6">
         <v>2024</v>
       </c>
@@ -720,25 +705,22 @@
         <v>43788.525999999998</v>
       </c>
       <c r="G7" s="8">
-        <v>16618.82</v>
+        <v>1420360.2239999999</v>
       </c>
       <c r="H7" s="8">
-        <v>1420360.2239999999</v>
+        <v>35413.527999999998</v>
       </c>
       <c r="I7" s="8">
-        <v>35413.527999999998</v>
+        <v>454041.7</v>
       </c>
       <c r="J7" s="8">
-        <v>454041.7</v>
-      </c>
-      <c r="K7" s="8">
         <v>46092.067000000003</v>
       </c>
-      <c r="L7" s="9">
+      <c r="K7" s="9">
         <v>365152.47100000002</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B8" s="10">
         <v>2023</v>
       </c>
@@ -755,25 +737,22 @@
         <v>42454.027000000002</v>
       </c>
       <c r="G8" s="12">
-        <v>17607.141</v>
+        <v>1404619.7170000002</v>
       </c>
       <c r="H8" s="12">
-        <v>1404619.7170000002</v>
+        <v>36639.623</v>
       </c>
       <c r="I8" s="12">
-        <v>36639.623</v>
+        <v>470290.174</v>
       </c>
       <c r="J8" s="12">
-        <v>470290.174</v>
-      </c>
-      <c r="K8" s="12">
         <v>59610.968999999997</v>
       </c>
-      <c r="L8" s="13">
+      <c r="K8" s="13">
         <v>359074.75599999999</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B9" s="6">
         <v>2023</v>
       </c>
@@ -790,25 +769,22 @@
         <v>41777.161999999997</v>
       </c>
       <c r="G9" s="8">
-        <v>19081.030999999999</v>
+        <v>1407788.0019999999</v>
       </c>
       <c r="H9" s="8">
-        <v>1407788.0019999999</v>
+        <v>35914.539000000004</v>
       </c>
       <c r="I9" s="8">
-        <v>35914.539000000004</v>
+        <v>449894.223</v>
       </c>
       <c r="J9" s="8">
-        <v>449894.223</v>
-      </c>
-      <c r="K9" s="8">
         <v>55900.885000000002</v>
       </c>
-      <c r="L9" s="9">
+      <c r="K9" s="9">
         <v>335793.83500000002</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B10" s="10">
         <v>2023</v>
       </c>
@@ -825,25 +801,22 @@
         <v>42120.142</v>
       </c>
       <c r="G10" s="12">
-        <v>18400.732</v>
+        <v>1449960.466</v>
       </c>
       <c r="H10" s="12">
-        <v>1449960.466</v>
+        <v>37460.129000000001</v>
       </c>
       <c r="I10" s="12">
-        <v>37460.129000000001</v>
+        <v>470534.68199999997</v>
       </c>
       <c r="J10" s="12">
-        <v>470534.68199999997</v>
-      </c>
-      <c r="K10" s="12">
         <v>66366.502999999997</v>
       </c>
-      <c r="L10" s="13">
+      <c r="K10" s="13">
         <v>341230.23599999998</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B11" s="6">
         <v>2023</v>
       </c>
@@ -860,25 +833,22 @@
         <v>41516.309000000001</v>
       </c>
       <c r="G11" s="8">
-        <v>16775.740000000002</v>
+        <v>1379038.5869999998</v>
       </c>
       <c r="H11" s="8">
-        <v>1379038.5869999998</v>
+        <v>37408.989000000001</v>
       </c>
       <c r="I11" s="8">
-        <v>37408.989000000001</v>
+        <v>424167.10100000002</v>
       </c>
       <c r="J11" s="8">
-        <v>424167.10100000002</v>
-      </c>
-      <c r="K11" s="8">
         <v>43226.271000000001</v>
       </c>
-      <c r="L11" s="9">
+      <c r="K11" s="9">
         <v>336835.337</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B12" s="10">
         <v>2022</v>
       </c>
@@ -895,25 +865,22 @@
         <v>38845.192000000003</v>
       </c>
       <c r="G12" s="12">
-        <v>16286.383</v>
+        <v>1388944.2150000001</v>
       </c>
       <c r="H12" s="12">
-        <v>1388944.2150000001</v>
+        <v>38318.297000000006</v>
       </c>
       <c r="I12" s="12">
-        <v>38318.297000000006</v>
+        <v>462735.25</v>
       </c>
       <c r="J12" s="12">
-        <v>462735.25</v>
-      </c>
-      <c r="K12" s="12">
         <v>77211.544999999998</v>
       </c>
-      <c r="L12" s="13">
+      <c r="K12" s="13">
         <v>330554.84000000003</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B13" s="6">
         <v>2022</v>
       </c>
@@ -930,25 +897,22 @@
         <v>40448.341</v>
       </c>
       <c r="G13" s="8">
-        <v>17829.059000000001</v>
+        <v>1374274.112</v>
       </c>
       <c r="H13" s="8">
-        <v>1374274.112</v>
+        <v>34863.303</v>
       </c>
       <c r="I13" s="8">
-        <v>34863.303</v>
+        <v>397458.95699999999</v>
       </c>
       <c r="J13" s="8">
-        <v>397458.95699999999</v>
-      </c>
-      <c r="K13" s="8">
         <v>53376.014999999999</v>
       </c>
-      <c r="L13" s="9">
+      <c r="K13" s="9">
         <v>292736.36300000001</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B14" s="10">
         <v>2022</v>
       </c>
@@ -965,25 +929,22 @@
         <v>38616.720000000001</v>
       </c>
       <c r="G14" s="12">
-        <v>17754.489000000001</v>
+        <v>1390053.868</v>
       </c>
       <c r="H14" s="12">
-        <v>1390053.868</v>
+        <v>36440.546000000002</v>
       </c>
       <c r="I14" s="12">
-        <v>36440.546000000002</v>
+        <v>424827.46899999998</v>
       </c>
       <c r="J14" s="12">
-        <v>424827.46899999998</v>
-      </c>
-      <c r="K14" s="12">
         <v>55042.03</v>
       </c>
-      <c r="L14" s="13">
+      <c r="K14" s="13">
         <v>309235.36099999998</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B15" s="6">
         <v>2022</v>
       </c>
@@ -1000,25 +961,22 @@
         <v>39392.195</v>
       </c>
       <c r="G15" s="8">
-        <v>15888.161</v>
+        <v>1293012.648</v>
       </c>
       <c r="H15" s="8">
-        <v>1293012.648</v>
+        <v>36461.385999999999</v>
       </c>
       <c r="I15" s="8">
-        <v>36461.385999999999</v>
+        <v>405239.31400000001</v>
       </c>
       <c r="J15" s="8">
-        <v>405239.31400000001</v>
-      </c>
-      <c r="K15" s="8">
         <v>45114.086000000003</v>
       </c>
-      <c r="L15" s="9">
+      <c r="K15" s="9">
         <v>320715.59899999999</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B16" s="10">
         <v>2021</v>
       </c>
@@ -1035,25 +993,22 @@
         <v>40021</v>
       </c>
       <c r="G16" s="12">
-        <v>17238.009999999998</v>
+        <v>1284426.1710000001</v>
       </c>
       <c r="H16" s="12">
-        <v>1284426.1710000001</v>
+        <v>39133.508999999998</v>
       </c>
       <c r="I16" s="12">
-        <v>39133.508999999998</v>
+        <v>404526.93699999998</v>
       </c>
       <c r="J16" s="12">
-        <v>404526.93699999998</v>
-      </c>
-      <c r="K16" s="12">
         <v>50277.087</v>
       </c>
-      <c r="L16" s="13">
+      <c r="K16" s="13">
         <v>305090.84100000001</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B17" s="6">
         <v>2021</v>
       </c>
@@ -1070,25 +1025,22 @@
         <v>41920.038999999997</v>
       </c>
       <c r="G17" s="8">
-        <v>17541.276999999998</v>
+        <v>1226602.686</v>
       </c>
       <c r="H17" s="8">
-        <v>1226602.686</v>
+        <v>34023.968000000001</v>
       </c>
       <c r="I17" s="8">
-        <v>34023.968000000001</v>
+        <v>369285.56800000003</v>
       </c>
       <c r="J17" s="8">
-        <v>369285.56800000003</v>
-      </c>
-      <c r="K17" s="8">
         <v>41058.044000000002</v>
       </c>
-      <c r="L17" s="9">
+      <c r="K17" s="9">
         <v>283388.99200000003</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B18" s="10">
         <v>2021</v>
       </c>
@@ -1105,25 +1057,22 @@
         <v>41825.332000000002</v>
       </c>
       <c r="G18" s="12">
-        <v>17246.403999999999</v>
+        <v>1230833.2069999999</v>
       </c>
       <c r="H18" s="12">
-        <v>1230833.2069999999</v>
+        <v>31772.227000000003</v>
       </c>
       <c r="I18" s="12">
-        <v>31772.227000000003</v>
+        <v>370119.02299999999</v>
       </c>
       <c r="J18" s="12">
-        <v>370119.02299999999</v>
-      </c>
-      <c r="K18" s="12">
         <v>30562.583999999999</v>
       </c>
-      <c r="L18" s="13">
+      <c r="K18" s="13">
         <v>295772.97499999998</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B19" s="6">
         <v>2021</v>
       </c>
@@ -1140,25 +1089,22 @@
         <v>38760.824999999997</v>
       </c>
       <c r="G19" s="8">
-        <v>15102.422</v>
+        <v>1125591.8489999999</v>
       </c>
       <c r="H19" s="8">
-        <v>1125591.8489999999</v>
+        <v>30497.906999999999</v>
       </c>
       <c r="I19" s="8">
-        <v>30497.906999999999</v>
+        <v>355093.79800000001</v>
       </c>
       <c r="J19" s="8">
-        <v>355093.79800000001</v>
-      </c>
-      <c r="K19" s="8">
         <v>34025.637000000002</v>
       </c>
-      <c r="L19" s="9">
+      <c r="K19" s="9">
         <v>293072.50699999998</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B20" s="10">
         <v>2020</v>
       </c>
@@ -1175,25 +1121,22 @@
         <v>37610.368000000002</v>
       </c>
       <c r="G20" s="12">
-        <v>15153.306</v>
+        <v>1142195.0209999999</v>
       </c>
       <c r="H20" s="12">
-        <v>1142195.0209999999</v>
+        <v>32368.103999999999</v>
       </c>
       <c r="I20" s="12">
-        <v>32368.103999999999</v>
+        <v>383060.71799999999</v>
       </c>
       <c r="J20" s="12">
-        <v>383060.71799999999</v>
-      </c>
-      <c r="K20" s="12">
         <v>43233.413999999997</v>
       </c>
-      <c r="L20" s="13">
+      <c r="K20" s="13">
         <v>303418.36900000001</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B21" s="6">
         <v>2020</v>
       </c>
@@ -1210,25 +1153,22 @@
         <v>39988.853000000003</v>
       </c>
       <c r="G21" s="8">
-        <v>14755.734</v>
+        <v>1054383.128</v>
       </c>
       <c r="H21" s="8">
-        <v>1054383.128</v>
+        <v>32446.451999999997</v>
       </c>
       <c r="I21" s="8">
-        <v>32446.451999999997</v>
+        <v>339426.875</v>
       </c>
       <c r="J21" s="8">
-        <v>339426.875</v>
-      </c>
-      <c r="K21" s="8">
         <v>30997.702000000001</v>
       </c>
-      <c r="L21" s="9">
+      <c r="K21" s="9">
         <v>275969.978</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B22" s="10">
         <v>2020</v>
       </c>
@@ -1245,25 +1185,22 @@
         <v>33735.362999999998</v>
       </c>
       <c r="G22" s="12">
-        <v>14809.057000000001</v>
+        <v>833504.78299999994</v>
       </c>
       <c r="H22" s="12">
-        <v>833504.78299999994</v>
+        <v>24298.183000000001</v>
       </c>
       <c r="I22" s="12">
-        <v>24298.183000000001</v>
+        <v>319719.19</v>
       </c>
       <c r="J22" s="12">
-        <v>319719.19</v>
-      </c>
-      <c r="K22" s="12">
         <v>19094.003000000001</v>
       </c>
-      <c r="L22" s="13">
+      <c r="K22" s="13">
         <v>272925.56</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B23" s="6">
         <v>2020</v>
       </c>
@@ -1280,25 +1217,22 @@
         <v>39490.457000000002</v>
       </c>
       <c r="G23" s="8">
-        <v>16236.735000000001</v>
+        <v>1261790.388</v>
       </c>
       <c r="H23" s="8">
-        <v>1261790.388</v>
+        <v>25766.957000000002</v>
       </c>
       <c r="I23" s="8">
-        <v>25766.957000000002</v>
+        <v>355067.17800000001</v>
       </c>
       <c r="J23" s="8">
-        <v>355067.17800000001</v>
-      </c>
-      <c r="K23" s="8">
         <v>29255.016</v>
       </c>
-      <c r="L23" s="9">
+      <c r="K23" s="9">
         <v>280637.14899999998</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B24" s="10">
         <v>2019</v>
       </c>
@@ -1315,25 +1249,22 @@
         <v>38606.845000000001</v>
       </c>
       <c r="G24" s="12">
-        <v>16895.731</v>
+        <v>1299653.307</v>
       </c>
       <c r="H24" s="12">
-        <v>1299653.307</v>
+        <v>28479.141</v>
       </c>
       <c r="I24" s="12">
-        <v>28479.141</v>
+        <v>408224.50400000002</v>
       </c>
       <c r="J24" s="12">
-        <v>408224.50400000002</v>
-      </c>
-      <c r="K24" s="12">
         <v>48010.567999999999</v>
       </c>
-      <c r="L24" s="13">
+      <c r="K24" s="13">
         <v>302433.20799999998</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B25" s="6">
         <v>2019</v>
       </c>
@@ -1350,25 +1281,22 @@
         <v>41520.222999999998</v>
       </c>
       <c r="G25" s="8">
-        <v>18625.53</v>
+        <v>1328113.648</v>
       </c>
       <c r="H25" s="8">
-        <v>1328113.648</v>
+        <v>28121.506000000001</v>
       </c>
       <c r="I25" s="8">
-        <v>28121.506000000001</v>
+        <v>392270.07199999999</v>
       </c>
       <c r="J25" s="8">
-        <v>392270.07199999999</v>
-      </c>
-      <c r="K25" s="8">
         <v>37102.976000000002</v>
       </c>
-      <c r="L25" s="9">
+      <c r="K25" s="9">
         <v>285182.84299999999</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B26" s="10">
         <v>2019</v>
       </c>
@@ -1385,25 +1313,22 @@
         <v>39867.446000000004</v>
       </c>
       <c r="G26" s="12">
-        <v>19163.186000000002</v>
+        <v>1323087.8740000001</v>
       </c>
       <c r="H26" s="12">
-        <v>1323087.8740000001</v>
+        <v>24555.73</v>
       </c>
       <c r="I26" s="12">
-        <v>24555.73</v>
+        <v>368031.47899999999</v>
       </c>
       <c r="J26" s="12">
-        <v>368031.47899999999</v>
-      </c>
-      <c r="K26" s="12">
         <v>31320.612000000001</v>
       </c>
-      <c r="L26" s="13">
+      <c r="K26" s="13">
         <v>262790.89299999998</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B27" s="6">
         <v>2019</v>
       </c>
@@ -1420,25 +1345,22 @@
         <v>35846.798000000003</v>
       </c>
       <c r="G27" s="8">
-        <v>18148.453000000001</v>
+        <v>1301893.75</v>
       </c>
       <c r="H27" s="8">
-        <v>1301893.75</v>
+        <v>23403.891</v>
       </c>
       <c r="I27" s="8">
-        <v>23403.891</v>
+        <v>352168.88500000001</v>
       </c>
       <c r="J27" s="8">
-        <v>352168.88500000001</v>
-      </c>
-      <c r="K27" s="8">
         <v>31974.864000000001</v>
       </c>
-      <c r="L27" s="9">
+      <c r="K27" s="9">
         <v>265179.05200000003</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B28" s="10">
         <v>2018</v>
       </c>
@@ -1455,25 +1377,22 @@
         <v>39863.557999999997</v>
       </c>
       <c r="G28" s="12">
-        <v>18252.773000000001</v>
+        <v>1326813.281</v>
       </c>
       <c r="H28" s="12">
-        <v>1326813.281</v>
+        <v>26605.802</v>
       </c>
       <c r="I28" s="12">
-        <v>26605.802</v>
+        <v>399180.39899999998</v>
       </c>
       <c r="J28" s="12">
-        <v>399180.39899999998</v>
-      </c>
-      <c r="K28" s="12">
         <v>53891.851000000002</v>
       </c>
-      <c r="L28" s="13">
+      <c r="K28" s="13">
         <v>284916.50900000002</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B29" s="6">
         <v>2018</v>
       </c>
@@ -1490,25 +1409,22 @@
         <v>39089.053999999996</v>
       </c>
       <c r="G29" s="8">
-        <v>19922.897000000001</v>
+        <v>1320754.638</v>
       </c>
       <c r="H29" s="8">
-        <v>1320754.638</v>
+        <v>26650.108999999997</v>
       </c>
       <c r="I29" s="8">
-        <v>26650.108999999997</v>
+        <v>371727.96500000003</v>
       </c>
       <c r="J29" s="8">
-        <v>371727.96500000003</v>
-      </c>
-      <c r="K29" s="8">
         <v>44258.788</v>
       </c>
-      <c r="L29" s="9">
+      <c r="K29" s="9">
         <v>260398.114</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B30" s="10">
         <v>2018</v>
       </c>
@@ -1525,25 +1441,22 @@
         <v>39828.671999999999</v>
       </c>
       <c r="G30" s="12">
-        <v>19551.669000000002</v>
+        <v>1310572.75</v>
       </c>
       <c r="H30" s="12">
-        <v>1310572.75</v>
+        <v>25610.445</v>
       </c>
       <c r="I30" s="12">
-        <v>25610.445</v>
+        <v>373964.217</v>
       </c>
       <c r="J30" s="12">
-        <v>373964.217</v>
-      </c>
-      <c r="K30" s="12">
         <v>34893.394999999997</v>
       </c>
-      <c r="L30" s="13">
+      <c r="K30" s="13">
         <v>267708.32500000001</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B31" s="14">
         <v>2018</v>
       </c>
@@ -1560,27 +1473,24 @@
         <v>35221.373</v>
       </c>
       <c r="G31" s="16">
-        <v>18129.357</v>
+        <v>1271867.3829999999</v>
       </c>
       <c r="H31" s="16">
-        <v>1271867.3829999999</v>
+        <v>23237.167999999998</v>
       </c>
       <c r="I31" s="16">
-        <v>23237.167999999998</v>
+        <v>340170.12</v>
       </c>
       <c r="J31" s="16">
-        <v>340170.12</v>
-      </c>
-      <c r="K31" s="16">
         <v>33427.034</v>
       </c>
-      <c r="L31" s="17">
+      <c r="K31" s="17">
         <v>252952.67199999999</v>
       </c>
     </row>
-    <row r="32" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="18"/>
@@ -1588,13 +1498,12 @@
       <c r="F32" s="18"/>
       <c r="G32" s="18"/>
       <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
       <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B33" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D33" s="18"/>
       <c r="E33" s="18"/>
@@ -1604,35 +1513,34 @@
       <c r="I33" s="18"/>
       <c r="J33" s="18"/>
       <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B34" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B36" s="19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B37" s="19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="19" t="s">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B38" s="19" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B36" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B37" s="19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B38" s="19" t="s">
-        <v>17</v>
-      </c>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B39" s="2" t="s">
         <v>0</v>
       </c>

--- a/PIB_SCT.xlsx
+++ b/PIB_SCT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\1-Indicadores Económicos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B543988-1747-48CB-B754-5A72CD05B248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C01B47D6-46E3-446D-A7A5-17575C5BC0EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_1.3" sheetId="1" r:id="rId1"/>
@@ -93,10 +93,10 @@
     <t>(Millones de pesos anualizados  a precios de 2018)</t>
   </si>
   <si>
-    <t>Actualización: Noviembre 2024.</t>
-  </si>
-  <si>
     <t xml:space="preserve">  El concepto PIB transporte, correos y almacenamiento, incluye transporte maritimo, transporte por ductos, transporte turístico, servicios relacionados con el transporte, y servicios de almacenamiento.</t>
+  </si>
+  <si>
+    <t>Actualización: Enero 2025.</t>
   </si>
 </sst>
 </file>
@@ -533,7 +533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:N39"/>
+  <dimension ref="B2:N40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -625,923 +625,955 @@
       </c>
     </row>
     <row r="5" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="6">
+      <c r="B5" s="10">
         <v>2024</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="11">
+        <v>4</v>
+      </c>
+      <c r="D5" s="12">
+        <v>1890306.1189999999</v>
+      </c>
+      <c r="E5" s="12">
+        <v>86251.111999999994</v>
+      </c>
+      <c r="F5" s="12">
+        <v>44629.324999999997</v>
+      </c>
+      <c r="G5" s="12">
+        <v>1436991.175</v>
+      </c>
+      <c r="H5" s="12">
+        <v>37502.938999999998</v>
+      </c>
+      <c r="I5" s="12">
+        <v>478008.83100000001</v>
+      </c>
+      <c r="J5" s="12">
+        <v>66976.903000000006</v>
+      </c>
+      <c r="K5" s="13">
+        <v>360880.18599999999</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C6" s="7">
         <v>3</v>
       </c>
-      <c r="D5" s="8">
-        <v>1899577.645</v>
-      </c>
-      <c r="E5" s="8">
-        <v>83763.125</v>
-      </c>
-      <c r="F5" s="8">
+      <c r="D6" s="8">
+        <v>1899914.575</v>
+      </c>
+      <c r="E6" s="8">
+        <v>84544.587</v>
+      </c>
+      <c r="F6" s="8">
         <v>45482.54</v>
       </c>
-      <c r="G5" s="8">
-        <v>1460419.277</v>
-      </c>
-      <c r="H5" s="8">
+      <c r="G6" s="8">
+        <v>1459757.4959999998</v>
+      </c>
+      <c r="H6" s="8">
         <v>36359.632000000005</v>
       </c>
-      <c r="I5" s="8">
-        <v>453776.66</v>
-      </c>
-      <c r="J5" s="8">
-        <v>58216.440999999999</v>
-      </c>
-      <c r="K5" s="9">
-        <v>342083.14600000001</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="10">
+      <c r="I6" s="8">
+        <v>453199.19300000003</v>
+      </c>
+      <c r="J6" s="8">
+        <v>57875.857000000004</v>
+      </c>
+      <c r="K6" s="9">
+        <v>341997.723</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="10">
         <v>2024</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C7" s="11">
         <v>2</v>
       </c>
-      <c r="D6" s="12">
-        <v>1939801.824</v>
-      </c>
-      <c r="E6" s="12">
+      <c r="D7" s="12">
+        <v>1939608.1529999999</v>
+      </c>
+      <c r="E7" s="12">
         <v>79966.350000000006</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F7" s="12">
         <v>43087.73</v>
       </c>
-      <c r="G6" s="12">
-        <v>1502816.6800000002</v>
-      </c>
-      <c r="H6" s="12">
+      <c r="G7" s="12">
+        <v>1502603.7519999999</v>
+      </c>
+      <c r="H7" s="12">
         <v>36502.175000000003</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I7" s="12">
         <v>471188.424</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J7" s="12">
         <v>60673.523000000001</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K7" s="13">
         <v>350559.72100000002</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B7" s="6">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B8" s="6">
         <v>2024</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C8" s="7">
         <v>1</v>
       </c>
-      <c r="D7" s="8">
-        <v>1830493.98</v>
-      </c>
-      <c r="E7" s="8">
+      <c r="D8" s="8">
+        <v>1830286.128</v>
+      </c>
+      <c r="E8" s="8">
         <v>77117.58</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F8" s="8">
         <v>43788.525999999998</v>
       </c>
-      <c r="G7" s="8">
-        <v>1420360.2239999999</v>
-      </c>
-      <c r="H7" s="8">
+      <c r="G8" s="8">
+        <v>1420126.96</v>
+      </c>
+      <c r="H8" s="8">
         <v>35413.527999999998</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I8" s="8">
         <v>454041.7</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J8" s="8">
         <v>46092.067000000003</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K8" s="9">
         <v>365152.47100000002</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B8" s="10">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B9" s="10">
         <v>2023</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C9" s="11">
         <v>4</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D9" s="12">
         <v>1817423.9469999999</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E9" s="12">
         <v>82478.354999999996</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F9" s="12">
         <v>42454.027000000002</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G9" s="12">
         <v>1404619.7170000002</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H9" s="12">
         <v>36639.623</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I9" s="12">
         <v>470290.174</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J9" s="12">
         <v>59610.968999999997</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K9" s="13">
         <v>359074.75599999999</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B9" s="6">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B10" s="6">
         <v>2023</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C10" s="7">
         <v>3</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D10" s="8">
         <v>1815473.2</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E10" s="8">
         <v>82678.485000000001</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F10" s="8">
         <v>41777.161999999997</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G10" s="8">
         <v>1407788.0019999999</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H10" s="8">
         <v>35914.539000000004</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I10" s="8">
         <v>449894.223</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J10" s="8">
         <v>55900.885000000002</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K10" s="9">
         <v>335793.83500000002</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B10" s="10">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B11" s="10">
         <v>2023</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C11" s="11">
         <v>2</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D11" s="12">
         <v>1865830.7849999999</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E11" s="12">
         <v>77537.144</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F11" s="12">
         <v>42120.142</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G11" s="12">
         <v>1449960.466</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H11" s="12">
         <v>37460.129000000001</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I11" s="12">
         <v>470534.68199999997</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J11" s="12">
         <v>66366.502999999997</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K11" s="13">
         <v>341230.23599999998</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B11" s="6">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B12" s="6">
         <v>2023</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C12" s="7">
         <v>1</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D12" s="8">
         <v>1769798.28</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E12" s="8">
         <v>73498.436000000002</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F12" s="8">
         <v>41516.309000000001</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G12" s="8">
         <v>1379038.5869999998</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H12" s="8">
         <v>37408.989000000001</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I12" s="8">
         <v>424167.10100000002</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J12" s="8">
         <v>43226.271000000001</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K12" s="9">
         <v>336835.337</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B12" s="10">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B13" s="10">
         <v>2022</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C13" s="11">
         <v>4</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D13" s="12">
         <v>1793008.297</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E13" s="12">
         <v>78096.396999999997</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F13" s="12">
         <v>38845.192000000003</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G13" s="12">
         <v>1388944.2150000001</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H13" s="12">
         <v>38318.297000000006</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I13" s="12">
         <v>462735.25</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J13" s="12">
         <v>77211.544999999998</v>
       </c>
-      <c r="K12" s="13">
+      <c r="K13" s="13">
         <v>330554.84000000003</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B13" s="6">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B14" s="6">
         <v>2022</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C14" s="7">
         <v>3</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D14" s="8">
         <v>1781127.6359999999</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E14" s="8">
         <v>75094.92</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F14" s="8">
         <v>40448.341</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G14" s="8">
         <v>1374274.112</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H14" s="8">
         <v>34863.303</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I14" s="8">
         <v>397458.95699999999</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J14" s="8">
         <v>53376.014999999999</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K14" s="9">
         <v>292736.36300000001</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B14" s="10">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B15" s="10">
         <v>2022</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C15" s="11">
         <v>2</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D15" s="12">
         <v>1791493.2220000001</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E15" s="12">
         <v>72456.710999999996</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F15" s="12">
         <v>38616.720000000001</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G15" s="12">
         <v>1390053.868</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H15" s="12">
         <v>36440.546000000002</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I15" s="12">
         <v>424827.46899999998</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J15" s="12">
         <v>55042.03</v>
       </c>
-      <c r="K14" s="13">
+      <c r="K15" s="13">
         <v>309235.36099999998</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B15" s="6">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B16" s="6">
         <v>2022</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C16" s="7">
         <v>1</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D16" s="8">
         <v>1651343.051</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E16" s="8">
         <v>62334.387000000002</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F16" s="8">
         <v>39392.195</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G16" s="8">
         <v>1293012.648</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H16" s="8">
         <v>36461.385999999999</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I16" s="8">
         <v>405239.31400000001</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J16" s="8">
         <v>45114.086000000003</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K16" s="9">
         <v>320715.59899999999</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B16" s="10">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B17" s="10">
         <v>2021</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C17" s="11">
         <v>4</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D17" s="12">
         <v>1669255.32</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E17" s="12">
         <v>68194.721999999994</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F17" s="12">
         <v>40021</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G17" s="12">
         <v>1284426.1710000001</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H17" s="12">
         <v>39133.508999999998</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I17" s="12">
         <v>404526.93699999998</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J17" s="12">
         <v>50277.087</v>
       </c>
-      <c r="K16" s="13">
+      <c r="K17" s="13">
         <v>305090.84100000001</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B17" s="6">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B18" s="6">
         <v>2021</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C18" s="7">
         <v>3</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D18" s="8">
         <v>1588299.804</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E18" s="8">
         <v>61661.207000000002</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F18" s="8">
         <v>41920.038999999997</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G18" s="8">
         <v>1226602.686</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H18" s="8">
         <v>34023.968000000001</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I18" s="8">
         <v>369285.56800000003</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J18" s="8">
         <v>41058.044000000002</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K18" s="9">
         <v>283388.99200000003</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B18" s="10">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B19" s="10">
         <v>2021</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C19" s="11">
         <v>2</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D19" s="12">
         <v>1586398.6710000001</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E19" s="12">
         <v>55986.597000000002</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F19" s="12">
         <v>41825.332000000002</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G19" s="12">
         <v>1230833.2069999999</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H19" s="12">
         <v>31772.227000000003</v>
       </c>
-      <c r="I18" s="12">
+      <c r="I19" s="12">
         <v>370119.02299999999</v>
       </c>
-      <c r="J18" s="12">
+      <c r="J19" s="12">
         <v>30562.583999999999</v>
       </c>
-      <c r="K18" s="13">
+      <c r="K19" s="13">
         <v>295772.97499999998</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B19" s="6">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B20" s="6">
         <v>2021</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C20" s="7">
         <v>1</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D20" s="8">
         <v>1432686.8389999999</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E20" s="8">
         <v>40266.410000000003</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F20" s="8">
         <v>38760.824999999997</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G20" s="8">
         <v>1125591.8489999999</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H20" s="8">
         <v>30497.906999999999</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I20" s="8">
         <v>355093.79800000001</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J20" s="8">
         <v>34025.637000000002</v>
       </c>
-      <c r="K19" s="9">
+      <c r="K20" s="9">
         <v>293072.50699999998</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B20" s="10">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B21" s="10">
         <v>2020</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C21" s="11">
         <v>4</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D21" s="12">
         <v>1452654.1580000001</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E21" s="12">
         <v>43221.267</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F21" s="12">
         <v>37610.368000000002</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G21" s="12">
         <v>1142195.0209999999</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H21" s="12">
         <v>32368.103999999999</v>
       </c>
-      <c r="I20" s="12">
+      <c r="I21" s="12">
         <v>383060.71799999999</v>
       </c>
-      <c r="J20" s="12">
+      <c r="J21" s="12">
         <v>43233.413999999997</v>
       </c>
-      <c r="K20" s="13">
+      <c r="K21" s="13">
         <v>303418.36900000001</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B21" s="6">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B22" s="6">
         <v>2020</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C22" s="7">
         <v>3</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D22" s="8">
         <v>1324804.855</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E22" s="8">
         <v>27809.295999999998</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F22" s="8">
         <v>39988.853000000003</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G22" s="8">
         <v>1054383.128</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H22" s="8">
         <v>32446.451999999997</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I22" s="8">
         <v>339426.875</v>
       </c>
-      <c r="J21" s="8">
+      <c r="J22" s="8">
         <v>30997.702000000001</v>
       </c>
-      <c r="K21" s="9">
+      <c r="K22" s="9">
         <v>275969.978</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B22" s="10">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B23" s="10">
         <v>2020</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C23" s="11">
         <v>2</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D23" s="12">
         <v>1046741.801</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E23" s="12">
         <v>8583.2569999999996</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F23" s="12">
         <v>33735.362999999998</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G23" s="12">
         <v>833504.78299999994</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H23" s="12">
         <v>24298.183000000001</v>
       </c>
-      <c r="I22" s="12">
+      <c r="I23" s="12">
         <v>319719.19</v>
       </c>
-      <c r="J22" s="12">
+      <c r="J23" s="12">
         <v>19094.003000000001</v>
       </c>
-      <c r="K22" s="13">
+      <c r="K23" s="13">
         <v>272925.56</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B23" s="6">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B24" s="6">
         <v>2020</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C24" s="7">
         <v>1</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D24" s="8">
         <v>1601364.0619999999</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E24" s="8">
         <v>67912.129000000001</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F24" s="8">
         <v>39490.457000000002</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G24" s="8">
         <v>1261790.388</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H24" s="8">
         <v>25766.957000000002</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I24" s="8">
         <v>355067.17800000001</v>
       </c>
-      <c r="J23" s="8">
+      <c r="J24" s="8">
         <v>29255.016</v>
       </c>
-      <c r="K23" s="9">
+      <c r="K24" s="9">
         <v>280637.14899999998</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B24" s="10">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B25" s="10">
         <v>2019</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C25" s="11">
         <v>4</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D25" s="12">
         <v>1655099.473</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E25" s="12">
         <v>74664.42</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F25" s="12">
         <v>38606.845000000001</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G25" s="12">
         <v>1299653.307</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H25" s="12">
         <v>28479.141</v>
       </c>
-      <c r="I24" s="12">
+      <c r="I25" s="12">
         <v>408224.50400000002</v>
       </c>
-      <c r="J24" s="12">
+      <c r="J25" s="12">
         <v>48010.567999999999</v>
       </c>
-      <c r="K24" s="13">
+      <c r="K25" s="13">
         <v>302433.20799999998</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B25" s="6">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B26" s="6">
         <v>2019</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C26" s="7">
         <v>3</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D26" s="8">
         <v>1676783.26</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E26" s="8">
         <v>71016.017000000007</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F26" s="8">
         <v>41520.222999999998</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G26" s="8">
         <v>1328113.648</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H26" s="8">
         <v>28121.506000000001</v>
       </c>
-      <c r="I25" s="8">
+      <c r="I26" s="8">
         <v>392270.07199999999</v>
       </c>
-      <c r="J25" s="8">
+      <c r="J26" s="8">
         <v>37102.976000000002</v>
       </c>
-      <c r="K25" s="9">
+      <c r="K26" s="9">
         <v>285182.84299999999</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B26" s="10">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B27" s="10">
         <v>2019</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C27" s="11">
         <v>2</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D27" s="12">
         <v>1668227.7890000001</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E27" s="12">
         <v>67499.47</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F27" s="12">
         <v>39867.446000000004</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G27" s="12">
         <v>1323087.8740000001</v>
       </c>
-      <c r="H26" s="12">
+      <c r="H27" s="12">
         <v>24555.73</v>
       </c>
-      <c r="I26" s="12">
+      <c r="I27" s="12">
         <v>368031.47899999999</v>
       </c>
-      <c r="J26" s="12">
+      <c r="J27" s="12">
         <v>31320.612000000001</v>
       </c>
-      <c r="K26" s="13">
+      <c r="K27" s="13">
         <v>262790.89299999998</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B27" s="6">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B28" s="6">
         <v>2019</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C28" s="7">
         <v>1</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D28" s="8">
         <v>1625188.4310000001</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E28" s="8">
         <v>61898.733</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F28" s="8">
         <v>35846.798000000003</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G28" s="8">
         <v>1301893.75</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H28" s="8">
         <v>23403.891</v>
       </c>
-      <c r="I27" s="8">
+      <c r="I28" s="8">
         <v>352168.88500000001</v>
       </c>
-      <c r="J27" s="8">
+      <c r="J28" s="8">
         <v>31974.864000000001</v>
       </c>
-      <c r="K27" s="9">
+      <c r="K28" s="9">
         <v>265179.05200000003</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B28" s="10">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B29" s="10">
         <v>2018</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C29" s="11">
         <v>4</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D29" s="12">
         <v>1675794.5209999999</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E29" s="12">
         <v>65114.981</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F29" s="12">
         <v>39863.557999999997</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G29" s="12">
         <v>1326813.281</v>
       </c>
-      <c r="H28" s="12">
+      <c r="H29" s="12">
         <v>26605.802</v>
       </c>
-      <c r="I28" s="12">
+      <c r="I29" s="12">
         <v>399180.39899999998</v>
       </c>
-      <c r="J28" s="12">
+      <c r="J29" s="12">
         <v>53891.851000000002</v>
       </c>
-      <c r="K28" s="13">
+      <c r="K29" s="13">
         <v>284916.50900000002</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B29" s="6">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B30" s="6">
         <v>2018</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C30" s="7">
         <v>3</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D30" s="8">
         <v>1672501.388</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E30" s="8">
         <v>65164.949000000001</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F30" s="8">
         <v>39089.053999999996</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G30" s="8">
         <v>1320754.638</v>
       </c>
-      <c r="H29" s="8">
+      <c r="H30" s="8">
         <v>26650.108999999997</v>
       </c>
-      <c r="I29" s="8">
+      <c r="I30" s="8">
         <v>371727.96500000003</v>
       </c>
-      <c r="J29" s="8">
+      <c r="J30" s="8">
         <v>44258.788</v>
       </c>
-      <c r="K29" s="9">
+      <c r="K30" s="9">
         <v>260398.114</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B30" s="10">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B31" s="10">
         <v>2018</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C31" s="11">
         <v>2</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D31" s="12">
         <v>1663414.6129999999</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E31" s="12">
         <v>62999.917999999998</v>
       </c>
-      <c r="F30" s="12">
+      <c r="F31" s="12">
         <v>39828.671999999999</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G31" s="12">
         <v>1310572.75</v>
       </c>
-      <c r="H30" s="12">
+      <c r="H31" s="12">
         <v>25610.445</v>
       </c>
-      <c r="I30" s="12">
+      <c r="I31" s="12">
         <v>373964.217</v>
       </c>
-      <c r="J30" s="12">
+      <c r="J31" s="12">
         <v>34893.394999999997</v>
       </c>
-      <c r="K30" s="13">
+      <c r="K31" s="13">
         <v>267708.32500000001</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B31" s="14">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B32" s="14">
         <v>2018</v>
       </c>
-      <c r="C31" s="15">
+      <c r="C32" s="15">
         <v>1</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D32" s="16">
         <v>1603128.9979999999</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E32" s="16">
         <v>61018.131999999998</v>
       </c>
-      <c r="F31" s="16">
+      <c r="F32" s="16">
         <v>35221.373</v>
       </c>
-      <c r="G31" s="16">
+      <c r="G32" s="16">
         <v>1271867.3829999999</v>
       </c>
-      <c r="H31" s="16">
+      <c r="H32" s="16">
         <v>23237.167999999998</v>
       </c>
-      <c r="I31" s="16">
+      <c r="I32" s="16">
         <v>340170.12</v>
       </c>
-      <c r="J31" s="16">
+      <c r="J32" s="16">
         <v>33427.034</v>
       </c>
-      <c r="K31" s="17">
+      <c r="K32" s="17">
         <v>252952.67199999999</v>
       </c>
     </row>
-    <row r="32" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B33" s="2" t="s">
-        <v>10</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C33" s="2"/>
       <c r="D33" s="18"/>
       <c r="E33" s="18"/>
       <c r="F33" s="18"/>
       <c r="G33" s="18"/>
       <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
       <c r="J33" s="18"/>
       <c r="K33" s="18"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B35" s="19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B36" s="19" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B37" s="19" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B38" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B39" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B40" s="2" t="s">
         <v>0</v>
       </c>
     </row>
